--- a/MCUMPU_database_23_05_newest.xlsx
+++ b/MCUMPU_database_23_05_newest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28922"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://renesasgroup-my.sharepoint.com/personal/rohith_srinivasan_wr_renesas_com/Documents/Desktop/New_Workspace_25/11_03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_11E21920B843918DAEE94763051ACF32DB84E3F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F791724F-F9B3-40E5-8201-9CA3794B8FF2}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_11E21920B843918DAEE94763051ACF32DB84E3F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F571FB1D-555C-4941-9815-718D4EB0DBB6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mcu_input" sheetId="1" r:id="rId1"/>
@@ -19060,7 +19060,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -19077,12 +19077,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -19112,11 +19118,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -19423,14 +19430,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BO211"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AK9" sqref="AK9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="22" max="22" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="38" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67">
+    <row r="1" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19633,7 +19651,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:67">
+    <row r="2" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -19836,7 +19854,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:67">
+    <row r="3" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>132</v>
       </c>
@@ -20036,7 +20054,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:67">
+    <row r="4" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>198</v>
       </c>
@@ -20215,7 +20233,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="5" spans="1:67">
+    <row r="5" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>255</v>
       </c>
@@ -20394,7 +20412,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="6" spans="1:67">
+    <row r="6" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>314</v>
       </c>
@@ -20428,7 +20446,7 @@
       <c r="U6" t="s">
         <v>324</v>
       </c>
-      <c r="V6" t="s">
+      <c r="V6" s="2" t="s">
         <v>325</v>
       </c>
       <c r="W6" t="s">
@@ -20525,7 +20543,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="7" spans="1:67">
+    <row r="7" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>356</v>
       </c>
@@ -20556,7 +20574,7 @@
       <c r="U7" t="s">
         <v>365</v>
       </c>
-      <c r="V7" t="s">
+      <c r="V7" s="2" t="s">
         <v>366</v>
       </c>
       <c r="W7" t="s">
@@ -20647,7 +20665,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="8" spans="1:67">
+    <row r="8" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>395</v>
       </c>
@@ -20675,7 +20693,7 @@
       <c r="T8" t="s">
         <v>403</v>
       </c>
-      <c r="V8" t="s">
+      <c r="V8" s="2" t="s">
         <v>404</v>
       </c>
       <c r="W8" t="s">
@@ -20760,7 +20778,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="9" spans="1:67">
+    <row r="9" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>430</v>
       </c>
@@ -20788,7 +20806,7 @@
       <c r="T9" t="s">
         <v>438</v>
       </c>
-      <c r="V9" t="s">
+      <c r="V9" s="2" t="s">
         <v>439</v>
       </c>
       <c r="W9" t="s">
@@ -20870,7 +20888,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="10" spans="1:67">
+    <row r="10" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>465</v>
       </c>
@@ -20895,7 +20913,7 @@
       <c r="S10" t="s">
         <v>472</v>
       </c>
-      <c r="V10" t="s">
+      <c r="V10" s="2" t="s">
         <v>473</v>
       </c>
       <c r="W10" t="s">
@@ -20968,7 +20986,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="11" spans="1:67">
+    <row r="11" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>497</v>
       </c>
@@ -20993,7 +21011,7 @@
       <c r="S11" t="s">
         <v>504</v>
       </c>
-      <c r="V11" t="s">
+      <c r="V11" s="2" t="s">
         <v>505</v>
       </c>
       <c r="W11" t="s">
@@ -21066,7 +21084,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="12" spans="1:67">
+    <row r="12" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>529</v>
       </c>
@@ -21091,7 +21109,7 @@
       <c r="S12" t="s">
         <v>536</v>
       </c>
-      <c r="V12" t="s">
+      <c r="V12" s="2" t="s">
         <v>537</v>
       </c>
       <c r="W12" t="s">
@@ -21112,7 +21130,7 @@
       <c r="AD12" t="s">
         <v>543</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AF12" s="2" t="s">
         <v>544</v>
       </c>
       <c r="AG12" t="s">
@@ -21161,7 +21179,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="13" spans="1:67">
+    <row r="13" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>560</v>
       </c>
@@ -21186,7 +21204,7 @@
       <c r="S13" t="s">
         <v>567</v>
       </c>
-      <c r="V13" t="s">
+      <c r="V13" s="2" t="s">
         <v>568</v>
       </c>
       <c r="W13" t="s">
@@ -21204,7 +21222,7 @@
       <c r="AD13" t="s">
         <v>573</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AF13" s="2" t="s">
         <v>574</v>
       </c>
       <c r="AG13" t="s">
@@ -21253,7 +21271,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="14" spans="1:67">
+    <row r="14" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>590</v>
       </c>
@@ -21263,7 +21281,7 @@
       <c r="G14" t="s">
         <v>592</v>
       </c>
-      <c r="V14" t="s">
+      <c r="V14" s="2" t="s">
         <v>593</v>
       </c>
       <c r="W14" t="s">
@@ -21281,7 +21299,7 @@
       <c r="AD14" t="s">
         <v>598</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AF14" s="2" t="s">
         <v>599</v>
       </c>
       <c r="AG14" t="s">
@@ -21330,7 +21348,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="15" spans="1:67">
+    <row r="15" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>615</v>
       </c>
@@ -21352,10 +21370,10 @@
       <c r="AD15" t="s">
         <v>621</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AF15" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AG15" s="2" t="s">
         <v>623</v>
       </c>
       <c r="AI15" t="s">
@@ -21401,7 +21419,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="16" spans="1:67">
+    <row r="16" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>638</v>
       </c>
@@ -21423,10 +21441,10 @@
       <c r="AD16" t="s">
         <v>644</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AF16" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AG16" s="2" t="s">
         <v>645</v>
       </c>
       <c r="AI16" t="s">
@@ -21472,7 +21490,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="17" spans="1:67">
+    <row r="17" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>660</v>
       </c>
@@ -21494,7 +21512,7 @@
       <c r="AD17" t="s">
         <v>666</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AF17" s="2" t="s">
         <v>516</v>
       </c>
       <c r="AI17" t="s">
@@ -21540,7 +21558,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="18" spans="1:67">
+    <row r="18" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>681</v>
       </c>
@@ -21562,7 +21580,7 @@
       <c r="AD18" t="s">
         <v>687</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AF18" s="2" t="s">
         <v>547</v>
       </c>
       <c r="AI18" t="s">
@@ -21602,7 +21620,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="19" spans="1:67">
+    <row r="19" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>700</v>
       </c>
@@ -21624,7 +21642,7 @@
       <c r="AD19" t="s">
         <v>706</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AF19" s="2" t="s">
         <v>577</v>
       </c>
       <c r="AI19" t="s">
@@ -21661,7 +21679,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="20" spans="1:67">
+    <row r="20" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>718</v>
       </c>
@@ -21683,7 +21701,7 @@
       <c r="AD20" t="s">
         <v>724</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AF20" s="2" t="s">
         <v>602</v>
       </c>
       <c r="AI20" t="s">
@@ -21720,7 +21738,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="21" spans="1:67">
+    <row r="21" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>736</v>
       </c>
@@ -21742,7 +21760,7 @@
       <c r="AD21" t="s">
         <v>742</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AF21" s="2" t="s">
         <v>518</v>
       </c>
       <c r="AI21" t="s">
@@ -21773,7 +21791,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="22" spans="1:67">
+    <row r="22" spans="1:67" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>752</v>
       </c>
@@ -21792,7 +21810,7 @@
       <c r="AD22" t="s">
         <v>757</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AF22" s="2" t="s">
         <v>549</v>
       </c>
       <c r="AI22" t="s">
@@ -21823,7 +21841,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="23" spans="1:67">
+    <row r="23" spans="1:67" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
         <v>766</v>
       </c>
@@ -21842,7 +21860,7 @@
       <c r="AD23" t="s">
         <v>771</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AF23" s="2" t="s">
         <v>579</v>
       </c>
       <c r="AI23" t="s">
@@ -21870,7 +21888,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="24" spans="1:67">
+    <row r="24" spans="1:67" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>779</v>
       </c>
@@ -21889,7 +21907,7 @@
       <c r="AD24" t="s">
         <v>784</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AF24" s="2" t="s">
         <v>604</v>
       </c>
       <c r="AI24" t="s">
@@ -21911,7 +21929,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="25" spans="1:67">
+    <row r="25" spans="1:67" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
         <v>791</v>
       </c>
@@ -21930,7 +21948,7 @@
       <c r="AD25" t="s">
         <v>796</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AF25" s="2" t="s">
         <v>627</v>
       </c>
       <c r="AI25" t="s">
@@ -21952,7 +21970,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="26" spans="1:67">
+    <row r="26" spans="1:67" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
         <v>803</v>
       </c>
@@ -21968,7 +21986,7 @@
       <c r="AD26" t="s">
         <v>807</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AF26" s="2" t="s">
         <v>808</v>
       </c>
       <c r="AI26" t="s">
@@ -21987,7 +22005,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="27" spans="1:67">
+    <row r="27" spans="1:67" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
         <v>814</v>
       </c>
@@ -22003,7 +22021,7 @@
       <c r="AD27" t="s">
         <v>818</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AF27" s="2" t="s">
         <v>819</v>
       </c>
       <c r="AI27" t="s">
@@ -22022,7 +22040,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="28" spans="1:67">
+    <row r="28" spans="1:67" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
         <v>825</v>
       </c>
@@ -22035,7 +22053,7 @@
       <c r="AD28" t="s">
         <v>828</v>
       </c>
-      <c r="AF28" t="s">
+      <c r="AF28" s="2" t="s">
         <v>829</v>
       </c>
       <c r="AI28" t="s">
@@ -22051,7 +22069,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="29" spans="1:67">
+    <row r="29" spans="1:67" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
         <v>834</v>
       </c>
@@ -22064,7 +22082,7 @@
       <c r="AD29" t="s">
         <v>837</v>
       </c>
-      <c r="AF29" t="s">
+      <c r="AF29" s="2" t="s">
         <v>838</v>
       </c>
       <c r="AI29" t="s">
@@ -22080,7 +22098,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="30" spans="1:67">
+    <row r="30" spans="1:67" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
         <v>843</v>
       </c>
@@ -22093,7 +22111,7 @@
       <c r="AD30" t="s">
         <v>846</v>
       </c>
-      <c r="AF30" t="s">
+      <c r="AF30" s="2" t="s">
         <v>847</v>
       </c>
       <c r="AI30" t="s">
@@ -22109,7 +22127,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="31" spans="1:67">
+    <row r="31" spans="1:67" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
         <v>852</v>
       </c>
@@ -22122,7 +22140,7 @@
       <c r="AD31" t="s">
         <v>855</v>
       </c>
-      <c r="AF31" t="s">
+      <c r="AF31" s="2" t="s">
         <v>856</v>
       </c>
       <c r="AI31" t="s">
@@ -22135,7 +22153,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="32" spans="1:67">
+    <row r="32" spans="1:67" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
         <v>860</v>
       </c>
@@ -22148,7 +22166,7 @@
       <c r="AD32" t="s">
         <v>863</v>
       </c>
-      <c r="AF32" t="s">
+      <c r="AF32" s="2" t="s">
         <v>864</v>
       </c>
       <c r="AI32" t="s">
@@ -22161,7 +22179,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="33" spans="6:59">
+    <row r="33" spans="6:59" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
         <v>868</v>
       </c>
@@ -22174,7 +22192,7 @@
       <c r="AD33" t="s">
         <v>871</v>
       </c>
-      <c r="AF33" t="s">
+      <c r="AF33" s="2" t="s">
         <v>872</v>
       </c>
       <c r="AI33" t="s">
@@ -22187,7 +22205,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="34" spans="6:59">
+    <row r="34" spans="6:59" x14ac:dyDescent="0.25">
       <c r="W34" t="s">
         <v>876</v>
       </c>
@@ -22197,7 +22215,7 @@
       <c r="AD34" t="s">
         <v>878</v>
       </c>
-      <c r="AF34" t="s">
+      <c r="AF34" s="2" t="s">
         <v>879</v>
       </c>
       <c r="AI34" t="s">
@@ -22210,7 +22228,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="35" spans="6:59">
+    <row r="35" spans="6:59" x14ac:dyDescent="0.25">
       <c r="W35" t="s">
         <v>883</v>
       </c>
@@ -22220,7 +22238,7 @@
       <c r="AD35" t="s">
         <v>885</v>
       </c>
-      <c r="AF35" t="s">
+      <c r="AF35" s="2" t="s">
         <v>886</v>
       </c>
       <c r="AI35" t="s">
@@ -22233,7 +22251,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="36" spans="6:59">
+    <row r="36" spans="6:59" x14ac:dyDescent="0.25">
       <c r="W36" t="s">
         <v>890</v>
       </c>
@@ -22243,7 +22261,7 @@
       <c r="AD36" t="s">
         <v>892</v>
       </c>
-      <c r="AF36" t="s">
+      <c r="AF36" s="2" t="s">
         <v>893</v>
       </c>
       <c r="AI36" t="s">
@@ -22256,7 +22274,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="37" spans="6:59">
+    <row r="37" spans="6:59" x14ac:dyDescent="0.25">
       <c r="W37" t="s">
         <v>897</v>
       </c>
@@ -22266,7 +22284,7 @@
       <c r="AD37" t="s">
         <v>899</v>
       </c>
-      <c r="AF37" t="s">
+      <c r="AF37" s="2" t="s">
         <v>900</v>
       </c>
       <c r="AI37" t="s">
@@ -22279,7 +22297,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="38" spans="6:59">
+    <row r="38" spans="6:59" x14ac:dyDescent="0.25">
       <c r="W38" t="s">
         <v>904</v>
       </c>
@@ -22289,7 +22307,7 @@
       <c r="AD38" t="s">
         <v>906</v>
       </c>
-      <c r="AF38" t="s">
+      <c r="AF38" s="2" t="s">
         <v>907</v>
       </c>
       <c r="AI38" t="s">
@@ -22302,7 +22320,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="39" spans="6:59">
+    <row r="39" spans="6:59" x14ac:dyDescent="0.25">
       <c r="W39" t="s">
         <v>911</v>
       </c>
@@ -22312,7 +22330,7 @@
       <c r="AD39" t="s">
         <v>913</v>
       </c>
-      <c r="AF39" t="s">
+      <c r="AF39" s="2" t="s">
         <v>914</v>
       </c>
       <c r="AI39" t="s">
@@ -22325,7 +22343,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="40" spans="6:59">
+    <row r="40" spans="6:59" x14ac:dyDescent="0.25">
       <c r="W40" t="s">
         <v>918</v>
       </c>
@@ -22335,7 +22353,7 @@
       <c r="AD40" t="s">
         <v>920</v>
       </c>
-      <c r="AF40" t="s">
+      <c r="AF40" s="2" t="s">
         <v>921</v>
       </c>
       <c r="AI40" t="s">
@@ -22348,14 +22366,14 @@
         <v>924</v>
       </c>
     </row>
-    <row r="41" spans="6:59">
+    <row r="41" spans="6:59" x14ac:dyDescent="0.25">
       <c r="W41" t="s">
         <v>925</v>
       </c>
       <c r="X41" t="s">
         <v>926</v>
       </c>
-      <c r="AF41" t="s">
+      <c r="AF41" s="2" t="s">
         <v>927</v>
       </c>
       <c r="AI41" t="s">
@@ -22368,14 +22386,14 @@
         <v>930</v>
       </c>
     </row>
-    <row r="42" spans="6:59">
+    <row r="42" spans="6:59" x14ac:dyDescent="0.25">
       <c r="W42" t="s">
         <v>931</v>
       </c>
       <c r="X42" t="s">
         <v>932</v>
       </c>
-      <c r="AF42" t="s">
+      <c r="AF42" s="2" t="s">
         <v>933</v>
       </c>
       <c r="AI42" t="s">
@@ -22388,14 +22406,14 @@
         <v>936</v>
       </c>
     </row>
-    <row r="43" spans="6:59">
+    <row r="43" spans="6:59" x14ac:dyDescent="0.25">
       <c r="W43" t="s">
         <v>937</v>
       </c>
       <c r="X43" t="s">
         <v>938</v>
       </c>
-      <c r="AF43" t="s">
+      <c r="AF43" s="2" t="s">
         <v>939</v>
       </c>
       <c r="AI43" t="s">
@@ -22408,14 +22426,14 @@
         <v>942</v>
       </c>
     </row>
-    <row r="44" spans="6:59">
+    <row r="44" spans="6:59" x14ac:dyDescent="0.25">
       <c r="W44" t="s">
         <v>943</v>
       </c>
       <c r="X44" t="s">
         <v>944</v>
       </c>
-      <c r="AF44" t="s">
+      <c r="AF44" s="2" t="s">
         <v>945</v>
       </c>
       <c r="AI44" t="s">
@@ -22428,14 +22446,14 @@
         <v>948</v>
       </c>
     </row>
-    <row r="45" spans="6:59">
+    <row r="45" spans="6:59" x14ac:dyDescent="0.25">
       <c r="W45" t="s">
         <v>949</v>
       </c>
       <c r="X45" t="s">
         <v>950</v>
       </c>
-      <c r="AF45" t="s">
+      <c r="AF45" s="2" t="s">
         <v>951</v>
       </c>
       <c r="AI45" t="s">
@@ -22448,14 +22466,14 @@
         <v>954</v>
       </c>
     </row>
-    <row r="46" spans="6:59">
+    <row r="46" spans="6:59" x14ac:dyDescent="0.25">
       <c r="W46" t="s">
         <v>955</v>
       </c>
       <c r="X46" t="s">
         <v>956</v>
       </c>
-      <c r="AF46" t="s">
+      <c r="AF46" s="2" t="s">
         <v>957</v>
       </c>
       <c r="AI46" t="s">
@@ -22468,14 +22486,14 @@
         <v>960</v>
       </c>
     </row>
-    <row r="47" spans="6:59">
+    <row r="47" spans="6:59" x14ac:dyDescent="0.25">
       <c r="W47" t="s">
         <v>961</v>
       </c>
       <c r="X47" t="s">
         <v>962</v>
       </c>
-      <c r="AF47" t="s">
+      <c r="AF47" s="2" t="s">
         <v>963</v>
       </c>
       <c r="AI47" t="s">
@@ -22488,14 +22506,14 @@
         <v>966</v>
       </c>
     </row>
-    <row r="48" spans="6:59">
+    <row r="48" spans="6:59" x14ac:dyDescent="0.25">
       <c r="W48" t="s">
         <v>967</v>
       </c>
       <c r="X48" t="s">
         <v>968</v>
       </c>
-      <c r="AF48" t="s">
+      <c r="AF48" s="2" t="s">
         <v>969</v>
       </c>
       <c r="AI48" t="s">
@@ -22508,14 +22526,14 @@
         <v>972</v>
       </c>
     </row>
-    <row r="49" spans="23:59">
+    <row r="49" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W49" t="s">
         <v>973</v>
       </c>
       <c r="X49" t="s">
         <v>974</v>
       </c>
-      <c r="AF49" t="s">
+      <c r="AF49" s="2" t="s">
         <v>975</v>
       </c>
       <c r="AI49" t="s">
@@ -22528,14 +22546,14 @@
         <v>978</v>
       </c>
     </row>
-    <row r="50" spans="23:59">
+    <row r="50" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W50" t="s">
         <v>979</v>
       </c>
       <c r="X50" t="s">
         <v>980</v>
       </c>
-      <c r="AF50" t="s">
+      <c r="AF50" s="2" t="s">
         <v>981</v>
       </c>
       <c r="AI50" t="s">
@@ -22548,14 +22566,14 @@
         <v>984</v>
       </c>
     </row>
-    <row r="51" spans="23:59">
+    <row r="51" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W51" t="s">
         <v>985</v>
       </c>
       <c r="X51" t="s">
         <v>986</v>
       </c>
-      <c r="AF51" t="s">
+      <c r="AF51" s="2" t="s">
         <v>987</v>
       </c>
       <c r="AI51" t="s">
@@ -22568,14 +22586,14 @@
         <v>990</v>
       </c>
     </row>
-    <row r="52" spans="23:59">
+    <row r="52" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W52" t="s">
         <v>991</v>
       </c>
       <c r="X52" t="s">
         <v>992</v>
       </c>
-      <c r="AF52" t="s">
+      <c r="AF52" s="2" t="s">
         <v>993</v>
       </c>
       <c r="AI52" t="s">
@@ -22588,14 +22606,14 @@
         <v>996</v>
       </c>
     </row>
-    <row r="53" spans="23:59">
+    <row r="53" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W53" t="s">
         <v>997</v>
       </c>
       <c r="X53" t="s">
         <v>998</v>
       </c>
-      <c r="AF53" t="s">
+      <c r="AF53" s="2" t="s">
         <v>999</v>
       </c>
       <c r="AI53" t="s">
@@ -22608,14 +22626,14 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="54" spans="23:59">
+    <row r="54" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W54" t="s">
         <v>1003</v>
       </c>
       <c r="X54" t="s">
         <v>1004</v>
       </c>
-      <c r="AF54" t="s">
+      <c r="AF54" s="2" t="s">
         <v>1005</v>
       </c>
       <c r="AI54" t="s">
@@ -22628,14 +22646,14 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="55" spans="23:59">
+    <row r="55" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W55" t="s">
         <v>1009</v>
       </c>
       <c r="X55" t="s">
         <v>1010</v>
       </c>
-      <c r="AF55" t="s">
+      <c r="AF55" s="2" t="s">
         <v>1011</v>
       </c>
       <c r="AI55" t="s">
@@ -22648,14 +22666,14 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="56" spans="23:59">
+    <row r="56" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W56" t="s">
         <v>1015</v>
       </c>
       <c r="X56" t="s">
         <v>1016</v>
       </c>
-      <c r="AF56" t="s">
+      <c r="AF56" s="2" t="s">
         <v>1017</v>
       </c>
       <c r="AI56" t="s">
@@ -22668,14 +22686,14 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="57" spans="23:59">
+    <row r="57" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W57" t="s">
         <v>1021</v>
       </c>
       <c r="X57" t="s">
         <v>1022</v>
       </c>
-      <c r="AF57" t="s">
+      <c r="AF57" s="2" t="s">
         <v>1023</v>
       </c>
       <c r="AI57" t="s">
@@ -22685,11 +22703,11 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="58" spans="23:59">
+    <row r="58" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W58" t="s">
         <v>1026</v>
       </c>
-      <c r="AF58" t="s">
+      <c r="AF58" s="2" t="s">
         <v>1027</v>
       </c>
       <c r="AI58" t="s">
@@ -22699,11 +22717,11 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="59" spans="23:59">
+    <row r="59" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W59" t="s">
         <v>1030</v>
       </c>
-      <c r="AF59" t="s">
+      <c r="AF59" s="2" t="s">
         <v>1031</v>
       </c>
       <c r="AI59" t="s">
@@ -22713,11 +22731,11 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="60" spans="23:59">
+    <row r="60" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W60" t="s">
         <v>1034</v>
       </c>
-      <c r="AF60" t="s">
+      <c r="AF60" s="2" t="s">
         <v>1035</v>
       </c>
       <c r="AI60" t="s">
@@ -22727,11 +22745,11 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="61" spans="23:59">
+    <row r="61" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W61" t="s">
         <v>1038</v>
       </c>
-      <c r="AF61" t="s">
+      <c r="AF61" s="2" t="s">
         <v>1039</v>
       </c>
       <c r="AI61" t="s">
@@ -22741,11 +22759,11 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="62" spans="23:59">
+    <row r="62" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W62" t="s">
         <v>1042</v>
       </c>
-      <c r="AF62" t="s">
+      <c r="AF62" s="2" t="s">
         <v>1043</v>
       </c>
       <c r="AI62" t="s">
@@ -22755,11 +22773,11 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="63" spans="23:59">
+    <row r="63" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W63" t="s">
         <v>1046</v>
       </c>
-      <c r="AF63" t="s">
+      <c r="AF63" s="2" t="s">
         <v>1047</v>
       </c>
       <c r="AI63" t="s">
@@ -22769,7 +22787,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="64" spans="23:59">
+    <row r="64" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W64" t="s">
         <v>1050</v>
       </c>
@@ -22780,7 +22798,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="65" spans="23:59">
+    <row r="65" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W65" t="s">
         <v>1053</v>
       </c>
@@ -22791,7 +22809,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="66" spans="23:59">
+    <row r="66" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W66" t="s">
         <v>1056</v>
       </c>
@@ -22802,7 +22820,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="67" spans="23:59">
+    <row r="67" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W67" t="s">
         <v>1059</v>
       </c>
@@ -22813,7 +22831,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="68" spans="23:59">
+    <row r="68" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W68" t="s">
         <v>1062</v>
       </c>
@@ -22824,7 +22842,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="69" spans="23:59">
+    <row r="69" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W69" t="s">
         <v>1065</v>
       </c>
@@ -22835,7 +22853,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="70" spans="23:59">
+    <row r="70" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W70" t="s">
         <v>1068</v>
       </c>
@@ -22846,7 +22864,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="71" spans="23:59">
+    <row r="71" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W71" t="s">
         <v>1071</v>
       </c>
@@ -22857,7 +22875,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="72" spans="23:59">
+    <row r="72" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W72" t="s">
         <v>1074</v>
       </c>
@@ -22868,7 +22886,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="73" spans="23:59">
+    <row r="73" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W73" t="s">
         <v>1077</v>
       </c>
@@ -22879,7 +22897,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="74" spans="23:59">
+    <row r="74" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W74" t="s">
         <v>1080</v>
       </c>
@@ -22887,7 +22905,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="75" spans="23:59">
+    <row r="75" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W75" t="s">
         <v>1082</v>
       </c>
@@ -22895,7 +22913,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="76" spans="23:59">
+    <row r="76" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W76" t="s">
         <v>1084</v>
       </c>
@@ -22903,7 +22921,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="77" spans="23:59">
+    <row r="77" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W77" t="s">
         <v>1086</v>
       </c>
@@ -22911,7 +22929,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="78" spans="23:59">
+    <row r="78" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W78" t="s">
         <v>1088</v>
       </c>
@@ -22919,7 +22937,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="79" spans="23:59">
+    <row r="79" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W79" t="s">
         <v>1090</v>
       </c>
@@ -22927,7 +22945,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="80" spans="23:59">
+    <row r="80" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W80" t="s">
         <v>1092</v>
       </c>
@@ -22935,7 +22953,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="81" spans="23:59">
+    <row r="81" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W81" t="s">
         <v>1094</v>
       </c>
@@ -22943,7 +22961,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="82" spans="23:59">
+    <row r="82" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W82" t="s">
         <v>1096</v>
       </c>
@@ -22951,7 +22969,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="83" spans="23:59">
+    <row r="83" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W83" t="s">
         <v>1098</v>
       </c>
@@ -22959,7 +22977,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="84" spans="23:59">
+    <row r="84" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W84" t="s">
         <v>1100</v>
       </c>
@@ -22967,7 +22985,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="85" spans="23:59">
+    <row r="85" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W85" t="s">
         <v>1102</v>
       </c>
@@ -22975,7 +22993,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="86" spans="23:59">
+    <row r="86" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W86" t="s">
         <v>1104</v>
       </c>
@@ -22983,7 +23001,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="87" spans="23:59">
+    <row r="87" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W87" t="s">
         <v>1106</v>
       </c>
@@ -22991,7 +23009,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="88" spans="23:59">
+    <row r="88" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W88" t="s">
         <v>1108</v>
       </c>
@@ -22999,7 +23017,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="89" spans="23:59">
+    <row r="89" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W89" t="s">
         <v>1110</v>
       </c>
@@ -23007,7 +23025,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="90" spans="23:59">
+    <row r="90" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W90" t="s">
         <v>1112</v>
       </c>
@@ -23015,7 +23033,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="91" spans="23:59">
+    <row r="91" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W91" t="s">
         <v>1114</v>
       </c>
@@ -23023,7 +23041,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="92" spans="23:59">
+    <row r="92" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W92" t="s">
         <v>1116</v>
       </c>
@@ -23031,7 +23049,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="93" spans="23:59">
+    <row r="93" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W93" t="s">
         <v>1118</v>
       </c>
@@ -23039,7 +23057,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="94" spans="23:59">
+    <row r="94" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W94" t="s">
         <v>1120</v>
       </c>
@@ -23047,7 +23065,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="95" spans="23:59">
+    <row r="95" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W95" t="s">
         <v>1122</v>
       </c>
@@ -23055,7 +23073,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="96" spans="23:59">
+    <row r="96" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W96" t="s">
         <v>1124</v>
       </c>
@@ -23063,7 +23081,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="97" spans="23:59">
+    <row r="97" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W97" t="s">
         <v>1126</v>
       </c>
@@ -23071,7 +23089,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="98" spans="23:59">
+    <row r="98" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W98" t="s">
         <v>1128</v>
       </c>
@@ -23079,7 +23097,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="99" spans="23:59">
+    <row r="99" spans="23:59" x14ac:dyDescent="0.25">
       <c r="W99" t="s">
         <v>1130</v>
       </c>
@@ -23087,562 +23105,562 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="100" spans="23:59">
+    <row r="100" spans="23:59" x14ac:dyDescent="0.25">
       <c r="BG100" t="s">
         <v>1132</v>
       </c>
     </row>
-    <row r="101" spans="23:59">
+    <row r="101" spans="23:59" x14ac:dyDescent="0.25">
       <c r="BG101" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="102" spans="23:59">
+    <row r="102" spans="23:59" x14ac:dyDescent="0.25">
       <c r="BG102" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="103" spans="23:59">
+    <row r="103" spans="23:59" x14ac:dyDescent="0.25">
       <c r="BG103" t="s">
         <v>1135</v>
       </c>
     </row>
-    <row r="104" spans="23:59">
+    <row r="104" spans="23:59" x14ac:dyDescent="0.25">
       <c r="BG104" t="s">
         <v>1136</v>
       </c>
     </row>
-    <row r="105" spans="23:59">
+    <row r="105" spans="23:59" x14ac:dyDescent="0.25">
       <c r="BG105" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="106" spans="23:59">
+    <row r="106" spans="23:59" x14ac:dyDescent="0.25">
       <c r="BG106" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="107" spans="23:59">
+    <row r="107" spans="23:59" x14ac:dyDescent="0.25">
       <c r="BG107" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="108" spans="23:59">
+    <row r="108" spans="23:59" x14ac:dyDescent="0.25">
       <c r="BG108" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="109" spans="23:59">
+    <row r="109" spans="23:59" x14ac:dyDescent="0.25">
       <c r="BG109" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="110" spans="23:59">
+    <row r="110" spans="23:59" x14ac:dyDescent="0.25">
       <c r="BG110" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="111" spans="23:59">
+    <row r="111" spans="23:59" x14ac:dyDescent="0.25">
       <c r="BG111" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="112" spans="23:59">
+    <row r="112" spans="23:59" x14ac:dyDescent="0.25">
       <c r="BG112" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="113" spans="59:59">
+    <row r="113" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG113" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="114" spans="59:59">
+    <row r="114" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG114" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="115" spans="59:59">
+    <row r="115" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG115" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="116" spans="59:59">
+    <row r="116" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG116" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="117" spans="59:59">
+    <row r="117" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG117" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="118" spans="59:59">
+    <row r="118" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG118" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="119" spans="59:59">
+    <row r="119" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG119" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="120" spans="59:59">
+    <row r="120" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG120" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="121" spans="59:59">
+    <row r="121" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG121" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="122" spans="59:59">
+    <row r="122" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG122" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="123" spans="59:59">
+    <row r="123" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG123" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="124" spans="59:59">
+    <row r="124" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG124" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="125" spans="59:59">
+    <row r="125" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG125" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="126" spans="59:59">
+    <row r="126" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG126" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="127" spans="59:59">
+    <row r="127" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG127" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="128" spans="59:59">
+    <row r="128" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG128" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="129" spans="59:59">
+    <row r="129" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG129" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="130" spans="59:59">
+    <row r="130" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG130" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="131" spans="59:59">
+    <row r="131" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG131" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="132" spans="59:59">
+    <row r="132" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG132" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="133" spans="59:59">
+    <row r="133" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG133" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="134" spans="59:59">
+    <row r="134" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG134" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="135" spans="59:59">
+    <row r="135" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG135" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="136" spans="59:59">
+    <row r="136" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG136" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="137" spans="59:59">
+    <row r="137" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG137" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="138" spans="59:59">
+    <row r="138" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG138" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="139" spans="59:59">
+    <row r="139" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG139" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="140" spans="59:59">
+    <row r="140" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG140" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="141" spans="59:59">
+    <row r="141" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG141" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="142" spans="59:59">
+    <row r="142" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG142" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="143" spans="59:59">
+    <row r="143" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG143" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="144" spans="59:59">
+    <row r="144" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG144" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="145" spans="59:59">
+    <row r="145" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG145" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="146" spans="59:59">
+    <row r="146" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG146" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="147" spans="59:59">
+    <row r="147" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG147" t="s">
         <v>1178</v>
       </c>
     </row>
-    <row r="148" spans="59:59">
+    <row r="148" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG148" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="149" spans="59:59">
+    <row r="149" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG149" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="150" spans="59:59">
+    <row r="150" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG150" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="151" spans="59:59">
+    <row r="151" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG151" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="152" spans="59:59">
+    <row r="152" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG152" t="s">
         <v>1183</v>
       </c>
     </row>
-    <row r="153" spans="59:59">
+    <row r="153" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG153" t="s">
         <v>1184</v>
       </c>
     </row>
-    <row r="154" spans="59:59">
+    <row r="154" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG154" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="155" spans="59:59">
+    <row r="155" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG155" t="s">
         <v>1186</v>
       </c>
     </row>
-    <row r="156" spans="59:59">
+    <row r="156" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG156" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="157" spans="59:59">
+    <row r="157" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG157" t="s">
         <v>1188</v>
       </c>
     </row>
-    <row r="158" spans="59:59">
+    <row r="158" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG158" t="s">
         <v>1189</v>
       </c>
     </row>
-    <row r="159" spans="59:59">
+    <row r="159" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG159" t="s">
         <v>1190</v>
       </c>
     </row>
-    <row r="160" spans="59:59">
+    <row r="160" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG160" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="161" spans="59:59">
+    <row r="161" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG161" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="162" spans="59:59">
+    <row r="162" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG162" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="163" spans="59:59">
+    <row r="163" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG163" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="164" spans="59:59">
+    <row r="164" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG164" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="165" spans="59:59">
+    <row r="165" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG165" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="166" spans="59:59">
+    <row r="166" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG166" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="167" spans="59:59">
+    <row r="167" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG167" t="s">
         <v>1198</v>
       </c>
     </row>
-    <row r="168" spans="59:59">
+    <row r="168" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG168" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="169" spans="59:59">
+    <row r="169" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG169" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="170" spans="59:59">
+    <row r="170" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG170" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="171" spans="59:59">
+    <row r="171" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG171" t="s">
         <v>1202</v>
       </c>
     </row>
-    <row r="172" spans="59:59">
+    <row r="172" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG172" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="173" spans="59:59">
+    <row r="173" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG173" t="s">
         <v>1204</v>
       </c>
     </row>
-    <row r="174" spans="59:59">
+    <row r="174" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG174" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="175" spans="59:59">
+    <row r="175" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG175" t="s">
         <v>1206</v>
       </c>
     </row>
-    <row r="176" spans="59:59">
+    <row r="176" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG176" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="177" spans="59:59">
+    <row r="177" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG177" t="s">
         <v>1208</v>
       </c>
     </row>
-    <row r="178" spans="59:59">
+    <row r="178" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG178" t="s">
         <v>1209</v>
       </c>
     </row>
-    <row r="179" spans="59:59">
+    <row r="179" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG179" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="180" spans="59:59">
+    <row r="180" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG180" t="s">
         <v>1211</v>
       </c>
     </row>
-    <row r="181" spans="59:59">
+    <row r="181" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG181" t="s">
         <v>1212</v>
       </c>
     </row>
-    <row r="182" spans="59:59">
+    <row r="182" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG182" t="s">
         <v>1213</v>
       </c>
     </row>
-    <row r="183" spans="59:59">
+    <row r="183" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG183" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="184" spans="59:59">
+    <row r="184" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG184" t="s">
         <v>1215</v>
       </c>
     </row>
-    <row r="185" spans="59:59">
+    <row r="185" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG185" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="186" spans="59:59">
+    <row r="186" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG186" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="187" spans="59:59">
+    <row r="187" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG187" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="188" spans="59:59">
+    <row r="188" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG188" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="189" spans="59:59">
+    <row r="189" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG189" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="190" spans="59:59">
+    <row r="190" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG190" t="s">
         <v>1221</v>
       </c>
     </row>
-    <row r="191" spans="59:59">
+    <row r="191" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG191" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="192" spans="59:59">
+    <row r="192" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG192" t="s">
         <v>1223</v>
       </c>
     </row>
-    <row r="193" spans="59:59">
+    <row r="193" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG193" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="194" spans="59:59">
+    <row r="194" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG194" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="195" spans="59:59">
+    <row r="195" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG195" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="196" spans="59:59">
+    <row r="196" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG196" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="197" spans="59:59">
+    <row r="197" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG197" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="198" spans="59:59">
+    <row r="198" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG198" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="199" spans="59:59">
+    <row r="199" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG199" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="200" spans="59:59">
+    <row r="200" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG200" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="201" spans="59:59">
+    <row r="201" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG201" t="s">
         <v>1232</v>
       </c>
     </row>
-    <row r="202" spans="59:59">
+    <row r="202" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG202" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="203" spans="59:59">
+    <row r="203" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG203" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="204" spans="59:59">
+    <row r="204" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG204" t="s">
         <v>1235</v>
       </c>
     </row>
-    <row r="205" spans="59:59">
+    <row r="205" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG205" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="206" spans="59:59">
+    <row r="206" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG206" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="207" spans="59:59">
+    <row r="207" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG207" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="208" spans="59:59">
+    <row r="208" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG208" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="209" spans="59:59">
+    <row r="209" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG209" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="210" spans="59:59">
+    <row r="210" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG210" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="211" spans="59:59">
+    <row r="211" spans="59:59" x14ac:dyDescent="0.25">
       <c r="BG211" t="s">
         <v>1242</v>
       </c>
@@ -23658,9 +23676,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:114">
+    <row r="1" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1243</v>
       </c>
@@ -24004,7 +24022,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="2" spans="1:114">
+    <row r="2" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1354</v>
       </c>
@@ -24348,7 +24366,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="3" spans="1:114">
+    <row r="3" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1468</v>
       </c>
@@ -24689,7 +24707,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="4" spans="1:114">
+    <row r="4" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1580</v>
       </c>
@@ -25024,7 +25042,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="5" spans="1:114">
+    <row r="5" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1691</v>
       </c>
@@ -25353,7 +25371,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="6" spans="1:114">
+    <row r="6" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1799</v>
       </c>
@@ -25649,7 +25667,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="7" spans="1:114">
+    <row r="7" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1897</v>
       </c>
@@ -25927,7 +25945,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="8" spans="1:114">
+    <row r="8" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1989</v>
       </c>
@@ -26193,7 +26211,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="9" spans="1:114">
+    <row r="9" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2077</v>
       </c>
@@ -26447,7 +26465,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="10" spans="1:114">
+    <row r="10" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2160</v>
       </c>
@@ -26662,7 +26680,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="11" spans="1:114">
+    <row r="11" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2231</v>
       </c>
@@ -26871,7 +26889,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="12" spans="1:114">
+    <row r="12" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2300</v>
       </c>
@@ -27080,7 +27098,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="13" spans="1:114">
+    <row r="13" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2369</v>
       </c>
@@ -27289,7 +27307,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="14" spans="1:114">
+    <row r="14" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2438</v>
       </c>
@@ -27492,7 +27510,7 @@
         <v>2504</v>
       </c>
     </row>
-    <row r="15" spans="1:114">
+    <row r="15" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2505</v>
       </c>
@@ -27692,7 +27710,7 @@
         <v>2569</v>
       </c>
     </row>
-    <row r="16" spans="1:114">
+    <row r="16" spans="1:114" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2570</v>
       </c>
@@ -27883,7 +27901,7 @@
         <v>2632</v>
       </c>
     </row>
-    <row r="17" spans="2:114">
+    <row r="17" spans="2:114" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>2633</v>
       </c>
@@ -28068,7 +28086,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="18" spans="2:114">
+    <row r="18" spans="2:114" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>2694</v>
       </c>
@@ -28241,7 +28259,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="19" spans="2:114">
+    <row r="19" spans="2:114" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>2751</v>
       </c>
@@ -28393,7 +28411,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="20" spans="2:114">
+    <row r="20" spans="2:114" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>2801</v>
       </c>
@@ -28545,7 +28563,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="21" spans="2:114">
+    <row r="21" spans="2:114" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>2851</v>
       </c>
@@ -28682,7 +28700,7 @@
         <v>2895</v>
       </c>
     </row>
-    <row r="22" spans="2:114">
+    <row r="22" spans="2:114" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>2896</v>
       </c>
@@ -28819,7 +28837,7 @@
         <v>2940</v>
       </c>
     </row>
-    <row r="23" spans="2:114">
+    <row r="23" spans="2:114" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>2941</v>
       </c>
@@ -28953,7 +28971,7 @@
         <v>2984</v>
       </c>
     </row>
-    <row r="24" spans="2:114">
+    <row r="24" spans="2:114" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>2985</v>
       </c>
@@ -29084,7 +29102,7 @@
         <v>3027</v>
       </c>
     </row>
-    <row r="25" spans="2:114">
+    <row r="25" spans="2:114" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>3028</v>
       </c>
@@ -29212,7 +29230,7 @@
         <v>3069</v>
       </c>
     </row>
-    <row r="26" spans="2:114">
+    <row r="26" spans="2:114" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>3070</v>
       </c>
@@ -29337,7 +29355,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="27" spans="2:114">
+    <row r="27" spans="2:114" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>3111</v>
       </c>
@@ -29459,7 +29477,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="28" spans="2:114">
+    <row r="28" spans="2:114" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>3151</v>
       </c>
@@ -29581,7 +29599,7 @@
         <v>3190</v>
       </c>
     </row>
-    <row r="29" spans="2:114">
+    <row r="29" spans="2:114" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>3191</v>
       </c>
@@ -29703,7 +29721,7 @@
         <v>3229</v>
       </c>
     </row>
-    <row r="30" spans="2:114">
+    <row r="30" spans="2:114" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>3230</v>
       </c>
@@ -29819,7 +29837,7 @@
         <v>3267</v>
       </c>
     </row>
-    <row r="31" spans="2:114">
+    <row r="31" spans="2:114" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>3268</v>
       </c>
@@ -29932,7 +29950,7 @@
         <v>3303</v>
       </c>
     </row>
-    <row r="32" spans="2:114">
+    <row r="32" spans="2:114" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>3304</v>
       </c>
@@ -30042,7 +30060,7 @@
         <v>3339</v>
       </c>
     </row>
-    <row r="33" spans="2:112">
+    <row r="33" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>3340</v>
       </c>
@@ -30152,7 +30170,7 @@
         <v>3375</v>
       </c>
     </row>
-    <row r="34" spans="2:112">
+    <row r="34" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>3376</v>
       </c>
@@ -30259,7 +30277,7 @@
         <v>3410</v>
       </c>
     </row>
-    <row r="35" spans="2:112">
+    <row r="35" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>3411</v>
       </c>
@@ -30360,7 +30378,7 @@
         <v>3442</v>
       </c>
     </row>
-    <row r="36" spans="2:112">
+    <row r="36" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>3443</v>
       </c>
@@ -30455,7 +30473,7 @@
         <v>3472</v>
       </c>
     </row>
-    <row r="37" spans="2:112">
+    <row r="37" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>3473</v>
       </c>
@@ -30547,7 +30565,7 @@
         <v>3501</v>
       </c>
     </row>
-    <row r="38" spans="2:112">
+    <row r="38" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>3502</v>
       </c>
@@ -30639,7 +30657,7 @@
         <v>3530</v>
       </c>
     </row>
-    <row r="39" spans="2:112">
+    <row r="39" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>3531</v>
       </c>
@@ -30731,7 +30749,7 @@
         <v>3559</v>
       </c>
     </row>
-    <row r="40" spans="2:112">
+    <row r="40" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>3560</v>
       </c>
@@ -30817,7 +30835,7 @@
         <v>3586</v>
       </c>
     </row>
-    <row r="41" spans="2:112">
+    <row r="41" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>3587</v>
       </c>
@@ -30897,7 +30915,7 @@
         <v>3611</v>
       </c>
     </row>
-    <row r="42" spans="2:112">
+    <row r="42" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>3612</v>
       </c>
@@ -30974,7 +30992,7 @@
         <v>3635</v>
       </c>
     </row>
-    <row r="43" spans="2:112">
+    <row r="43" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>3636</v>
       </c>
@@ -31051,7 +31069,7 @@
         <v>3659</v>
       </c>
     </row>
-    <row r="44" spans="2:112">
+    <row r="44" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>3660</v>
       </c>
@@ -31125,7 +31143,7 @@
         <v>3682</v>
       </c>
     </row>
-    <row r="45" spans="2:112">
+    <row r="45" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>3683</v>
       </c>
@@ -31199,7 +31217,7 @@
         <v>3706</v>
       </c>
     </row>
-    <row r="46" spans="2:112">
+    <row r="46" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>3707</v>
       </c>
@@ -31270,7 +31288,7 @@
         <v>3729</v>
       </c>
     </row>
-    <row r="47" spans="2:112">
+    <row r="47" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>3730</v>
       </c>
@@ -31338,7 +31356,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="48" spans="2:112">
+    <row r="48" spans="2:112" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>3751</v>
       </c>
@@ -31406,7 +31424,7 @@
         <v>3771</v>
       </c>
     </row>
-    <row r="49" spans="2:91">
+    <row r="49" spans="2:91" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>3772</v>
       </c>
@@ -31471,7 +31489,7 @@
         <v>3791</v>
       </c>
     </row>
-    <row r="50" spans="2:91">
+    <row r="50" spans="2:91" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>3792</v>
       </c>
@@ -31533,7 +31551,7 @@
         <v>3809</v>
       </c>
     </row>
-    <row r="51" spans="2:91">
+    <row r="51" spans="2:91" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>3810</v>
       </c>
@@ -31592,7 +31610,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="52" spans="2:91">
+    <row r="52" spans="2:91" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>3827</v>
       </c>
@@ -31648,7 +31666,7 @@
         <v>3843</v>
       </c>
     </row>
-    <row r="53" spans="2:91">
+    <row r="53" spans="2:91" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>3844</v>
       </c>
@@ -31701,7 +31719,7 @@
         <v>3858</v>
       </c>
     </row>
-    <row r="54" spans="2:91">
+    <row r="54" spans="2:91" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>3859</v>
       </c>
@@ -31754,7 +31772,7 @@
         <v>3871</v>
       </c>
     </row>
-    <row r="55" spans="2:91">
+    <row r="55" spans="2:91" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>3872</v>
       </c>
@@ -31807,7 +31825,7 @@
         <v>3885</v>
       </c>
     </row>
-    <row r="56" spans="2:91">
+    <row r="56" spans="2:91" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>3886</v>
       </c>
@@ -31860,7 +31878,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="57" spans="2:91">
+    <row r="57" spans="2:91" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>3901</v>
       </c>
@@ -31913,7 +31931,7 @@
         <v>3915</v>
       </c>
     </row>
-    <row r="58" spans="2:91">
+    <row r="58" spans="2:91" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>3916</v>
       </c>
@@ -31966,7 +31984,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="59" spans="2:91">
+    <row r="59" spans="2:91" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>3932</v>
       </c>
@@ -32016,7 +32034,7 @@
         <v>3946</v>
       </c>
     </row>
-    <row r="60" spans="2:91">
+    <row r="60" spans="2:91" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>3947</v>
       </c>
@@ -32066,7 +32084,7 @@
         <v>3961</v>
       </c>
     </row>
-    <row r="61" spans="2:91">
+    <row r="61" spans="2:91" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>3962</v>
       </c>
@@ -32116,7 +32134,7 @@
         <v>3976</v>
       </c>
     </row>
-    <row r="62" spans="2:91">
+    <row r="62" spans="2:91" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>3977</v>
       </c>
@@ -32166,7 +32184,7 @@
         <v>3991</v>
       </c>
     </row>
-    <row r="63" spans="2:91">
+    <row r="63" spans="2:91" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>3992</v>
       </c>
@@ -32216,7 +32234,7 @@
         <v>4006</v>
       </c>
     </row>
-    <row r="64" spans="2:91">
+    <row r="64" spans="2:91" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>4007</v>
       </c>
@@ -32266,7 +32284,7 @@
         <v>4019</v>
       </c>
     </row>
-    <row r="65" spans="13:85">
+    <row r="65" spans="13:85" x14ac:dyDescent="0.25">
       <c r="M65" t="s">
         <v>4020</v>
       </c>
@@ -32310,7 +32328,7 @@
         <v>4031</v>
       </c>
     </row>
-    <row r="66" spans="13:85">
+    <row r="66" spans="13:85" x14ac:dyDescent="0.25">
       <c r="M66" t="s">
         <v>4032</v>
       </c>
@@ -32348,7 +32366,7 @@
         <v>4042</v>
       </c>
     </row>
-    <row r="67" spans="13:85">
+    <row r="67" spans="13:85" x14ac:dyDescent="0.25">
       <c r="M67" t="s">
         <v>4043</v>
       </c>
@@ -32386,7 +32404,7 @@
         <v>4053</v>
       </c>
     </row>
-    <row r="68" spans="13:85">
+    <row r="68" spans="13:85" x14ac:dyDescent="0.25">
       <c r="M68" t="s">
         <v>4054</v>
       </c>
@@ -32421,7 +32439,7 @@
         <v>4063</v>
       </c>
     </row>
-    <row r="69" spans="13:85">
+    <row r="69" spans="13:85" x14ac:dyDescent="0.25">
       <c r="M69" t="s">
         <v>4064</v>
       </c>
@@ -32456,7 +32474,7 @@
         <v>4073</v>
       </c>
     </row>
-    <row r="70" spans="13:85">
+    <row r="70" spans="13:85" x14ac:dyDescent="0.25">
       <c r="M70" t="s">
         <v>4074</v>
       </c>
@@ -32491,7 +32509,7 @@
         <v>4083</v>
       </c>
     </row>
-    <row r="71" spans="13:85">
+    <row r="71" spans="13:85" x14ac:dyDescent="0.25">
       <c r="M71" t="s">
         <v>4084</v>
       </c>
@@ -32526,7 +32544,7 @@
         <v>4093</v>
       </c>
     </row>
-    <row r="72" spans="13:85">
+    <row r="72" spans="13:85" x14ac:dyDescent="0.25">
       <c r="M72" t="s">
         <v>4094</v>
       </c>
@@ -32561,7 +32579,7 @@
         <v>4103</v>
       </c>
     </row>
-    <row r="73" spans="13:85">
+    <row r="73" spans="13:85" x14ac:dyDescent="0.25">
       <c r="M73" t="s">
         <v>4104</v>
       </c>
@@ -32596,7 +32614,7 @@
         <v>4113</v>
       </c>
     </row>
-    <row r="74" spans="13:85">
+    <row r="74" spans="13:85" x14ac:dyDescent="0.25">
       <c r="M74" t="s">
         <v>4114</v>
       </c>
@@ -32628,7 +32646,7 @@
         <v>4122</v>
       </c>
     </row>
-    <row r="75" spans="13:85">
+    <row r="75" spans="13:85" x14ac:dyDescent="0.25">
       <c r="M75" t="s">
         <v>4123</v>
       </c>
@@ -32660,7 +32678,7 @@
         <v>4131</v>
       </c>
     </row>
-    <row r="76" spans="13:85">
+    <row r="76" spans="13:85" x14ac:dyDescent="0.25">
       <c r="M76" t="s">
         <v>4132</v>
       </c>
@@ -32692,7 +32710,7 @@
         <v>4140</v>
       </c>
     </row>
-    <row r="77" spans="13:85">
+    <row r="77" spans="13:85" x14ac:dyDescent="0.25">
       <c r="M77" t="s">
         <v>4141</v>
       </c>
@@ -32721,7 +32739,7 @@
         <v>4148</v>
       </c>
     </row>
-    <row r="78" spans="13:85">
+    <row r="78" spans="13:85" x14ac:dyDescent="0.25">
       <c r="M78" t="s">
         <v>4149</v>
       </c>
@@ -32750,7 +32768,7 @@
         <v>4155</v>
       </c>
     </row>
-    <row r="79" spans="13:85">
+    <row r="79" spans="13:85" x14ac:dyDescent="0.25">
       <c r="M79" t="s">
         <v>4156</v>
       </c>
@@ -32779,7 +32797,7 @@
         <v>4163</v>
       </c>
     </row>
-    <row r="80" spans="13:85">
+    <row r="80" spans="13:85" x14ac:dyDescent="0.25">
       <c r="M80" t="s">
         <v>4164</v>
       </c>
@@ -32808,7 +32826,7 @@
         <v>4170</v>
       </c>
     </row>
-    <row r="81" spans="13:85">
+    <row r="81" spans="13:85" x14ac:dyDescent="0.25">
       <c r="M81" t="s">
         <v>4171</v>
       </c>
@@ -32834,7 +32852,7 @@
         <v>4176</v>
       </c>
     </row>
-    <row r="82" spans="13:85">
+    <row r="82" spans="13:85" x14ac:dyDescent="0.25">
       <c r="M82" t="s">
         <v>4177</v>
       </c>
@@ -32860,7 +32878,7 @@
         <v>4182</v>
       </c>
     </row>
-    <row r="83" spans="13:85">
+    <row r="83" spans="13:85" x14ac:dyDescent="0.25">
       <c r="M83" t="s">
         <v>4183</v>
       </c>
@@ -32886,7 +32904,7 @@
         <v>4189</v>
       </c>
     </row>
-    <row r="84" spans="13:85">
+    <row r="84" spans="13:85" x14ac:dyDescent="0.25">
       <c r="M84" t="s">
         <v>4190</v>
       </c>
@@ -32912,7 +32930,7 @@
         <v>4195</v>
       </c>
     </row>
-    <row r="85" spans="13:85">
+    <row r="85" spans="13:85" x14ac:dyDescent="0.25">
       <c r="M85" t="s">
         <v>4196</v>
       </c>
@@ -32938,7 +32956,7 @@
         <v>4201</v>
       </c>
     </row>
-    <row r="86" spans="13:85">
+    <row r="86" spans="13:85" x14ac:dyDescent="0.25">
       <c r="M86" t="s">
         <v>4202</v>
       </c>
@@ -32961,7 +32979,7 @@
         <v>3998</v>
       </c>
     </row>
-    <row r="87" spans="13:85">
+    <row r="87" spans="13:85" x14ac:dyDescent="0.25">
       <c r="M87" t="s">
         <v>4207</v>
       </c>
@@ -32984,7 +33002,7 @@
         <v>4013</v>
       </c>
     </row>
-    <row r="88" spans="13:85">
+    <row r="88" spans="13:85" x14ac:dyDescent="0.25">
       <c r="M88" t="s">
         <v>4212</v>
       </c>
@@ -33007,7 +33025,7 @@
         <v>4026</v>
       </c>
     </row>
-    <row r="89" spans="13:85">
+    <row r="89" spans="13:85" x14ac:dyDescent="0.25">
       <c r="M89" t="s">
         <v>4217</v>
       </c>
@@ -33030,7 +33048,7 @@
         <v>4222</v>
       </c>
     </row>
-    <row r="90" spans="13:85">
+    <row r="90" spans="13:85" x14ac:dyDescent="0.25">
       <c r="M90" t="s">
         <v>4223</v>
       </c>
@@ -33053,7 +33071,7 @@
         <v>4037</v>
       </c>
     </row>
-    <row r="91" spans="13:85">
+    <row r="91" spans="13:85" x14ac:dyDescent="0.25">
       <c r="M91" t="s">
         <v>4228</v>
       </c>
@@ -33076,7 +33094,7 @@
         <v>4234</v>
       </c>
     </row>
-    <row r="92" spans="13:85">
+    <row r="92" spans="13:85" x14ac:dyDescent="0.25">
       <c r="M92" t="s">
         <v>4235</v>
       </c>
@@ -33099,7 +33117,7 @@
         <v>4059</v>
       </c>
     </row>
-    <row r="93" spans="13:85">
+    <row r="93" spans="13:85" x14ac:dyDescent="0.25">
       <c r="M93" t="s">
         <v>4240</v>
       </c>
@@ -33122,7 +33140,7 @@
         <v>4245</v>
       </c>
     </row>
-    <row r="94" spans="13:85">
+    <row r="94" spans="13:85" x14ac:dyDescent="0.25">
       <c r="M94" t="s">
         <v>4246</v>
       </c>
@@ -33145,7 +33163,7 @@
         <v>4079</v>
       </c>
     </row>
-    <row r="95" spans="13:85">
+    <row r="95" spans="13:85" x14ac:dyDescent="0.25">
       <c r="P95" t="s">
         <v>4251</v>
       </c>
@@ -33165,7 +33183,7 @@
         <v>4256</v>
       </c>
     </row>
-    <row r="96" spans="13:85">
+    <row r="96" spans="13:85" x14ac:dyDescent="0.25">
       <c r="P96" t="s">
         <v>4257</v>
       </c>
@@ -33185,7 +33203,7 @@
         <v>4261</v>
       </c>
     </row>
-    <row r="97" spans="16:34">
+    <row r="97" spans="16:34" x14ac:dyDescent="0.25">
       <c r="P97" t="s">
         <v>4262</v>
       </c>
@@ -33205,7 +33223,7 @@
         <v>4267</v>
       </c>
     </row>
-    <row r="98" spans="16:34">
+    <row r="98" spans="16:34" x14ac:dyDescent="0.25">
       <c r="P98" t="s">
         <v>4268</v>
       </c>
@@ -33225,7 +33243,7 @@
         <v>4273</v>
       </c>
     </row>
-    <row r="99" spans="16:34">
+    <row r="99" spans="16:34" x14ac:dyDescent="0.25">
       <c r="P99" t="s">
         <v>4274</v>
       </c>
@@ -33245,7 +33263,7 @@
         <v>4128</v>
       </c>
     </row>
-    <row r="100" spans="16:34">
+    <row r="100" spans="16:34" x14ac:dyDescent="0.25">
       <c r="P100" t="s">
         <v>4279</v>
       </c>
@@ -33265,7 +33283,7 @@
         <v>4137</v>
       </c>
     </row>
-    <row r="101" spans="16:34">
+    <row r="101" spans="16:34" x14ac:dyDescent="0.25">
       <c r="P101" t="s">
         <v>4284</v>
       </c>
@@ -33285,7 +33303,7 @@
         <v>3055</v>
       </c>
     </row>
-    <row r="102" spans="16:34">
+    <row r="102" spans="16:34" x14ac:dyDescent="0.25">
       <c r="P102" t="s">
         <v>4289</v>
       </c>
@@ -33302,7 +33320,7 @@
         <v>3097</v>
       </c>
     </row>
-    <row r="103" spans="16:34">
+    <row r="103" spans="16:34" x14ac:dyDescent="0.25">
       <c r="P103" t="s">
         <v>4293</v>
       </c>
@@ -33319,7 +33337,7 @@
         <v>3138</v>
       </c>
     </row>
-    <row r="104" spans="16:34">
+    <row r="104" spans="16:34" x14ac:dyDescent="0.25">
       <c r="P104" t="s">
         <v>4297</v>
       </c>
@@ -33336,7 +33354,7 @@
         <v>3178</v>
       </c>
     </row>
-    <row r="105" spans="16:34">
+    <row r="105" spans="16:34" x14ac:dyDescent="0.25">
       <c r="P105" t="s">
         <v>4301</v>
       </c>
@@ -33353,7 +33371,7 @@
         <v>3217</v>
       </c>
     </row>
-    <row r="106" spans="16:34">
+    <row r="106" spans="16:34" x14ac:dyDescent="0.25">
       <c r="P106" t="s">
         <v>4305</v>
       </c>
@@ -33370,7 +33388,7 @@
         <v>3257</v>
       </c>
     </row>
-    <row r="107" spans="16:34">
+    <row r="107" spans="16:34" x14ac:dyDescent="0.25">
       <c r="P107" t="s">
         <v>4309</v>
       </c>
@@ -33384,7 +33402,7 @@
         <v>4312</v>
       </c>
     </row>
-    <row r="108" spans="16:34">
+    <row r="108" spans="16:34" x14ac:dyDescent="0.25">
       <c r="P108" t="s">
         <v>4313</v>
       </c>
@@ -33398,7 +33416,7 @@
         <v>4316</v>
       </c>
     </row>
-    <row r="109" spans="16:34">
+    <row r="109" spans="16:34" x14ac:dyDescent="0.25">
       <c r="P109" t="s">
         <v>4317</v>
       </c>
@@ -33412,7 +33430,7 @@
         <v>4320</v>
       </c>
     </row>
-    <row r="110" spans="16:34">
+    <row r="110" spans="16:34" x14ac:dyDescent="0.25">
       <c r="P110" t="s">
         <v>4321</v>
       </c>
@@ -33423,7 +33441,7 @@
         <v>4323</v>
       </c>
     </row>
-    <row r="111" spans="16:34">
+    <row r="111" spans="16:34" x14ac:dyDescent="0.25">
       <c r="P111" t="s">
         <v>4324</v>
       </c>
@@ -33434,7 +33452,7 @@
         <v>4326</v>
       </c>
     </row>
-    <row r="112" spans="16:34">
+    <row r="112" spans="16:34" x14ac:dyDescent="0.25">
       <c r="P112" t="s">
         <v>4327</v>
       </c>
@@ -33445,7 +33463,7 @@
         <v>4329</v>
       </c>
     </row>
-    <row r="113" spans="16:27">
+    <row r="113" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P113" t="s">
         <v>4330</v>
       </c>
@@ -33456,7 +33474,7 @@
         <v>4332</v>
       </c>
     </row>
-    <row r="114" spans="16:27">
+    <row r="114" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P114" t="s">
         <v>4333</v>
       </c>
@@ -33467,7 +33485,7 @@
         <v>4335</v>
       </c>
     </row>
-    <row r="115" spans="16:27">
+    <row r="115" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P115" t="s">
         <v>4336</v>
       </c>
@@ -33478,7 +33496,7 @@
         <v>4338</v>
       </c>
     </row>
-    <row r="116" spans="16:27">
+    <row r="116" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P116" t="s">
         <v>4339</v>
       </c>
@@ -33489,7 +33507,7 @@
         <v>4341</v>
       </c>
     </row>
-    <row r="117" spans="16:27">
+    <row r="117" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P117" t="s">
         <v>4342</v>
       </c>
@@ -33500,7 +33518,7 @@
         <v>4344</v>
       </c>
     </row>
-    <row r="118" spans="16:27">
+    <row r="118" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P118" t="s">
         <v>4345</v>
       </c>
@@ -33511,7 +33529,7 @@
         <v>4347</v>
       </c>
     </row>
-    <row r="119" spans="16:27">
+    <row r="119" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P119" t="s">
         <v>4348</v>
       </c>
@@ -33522,7 +33540,7 @@
         <v>4350</v>
       </c>
     </row>
-    <row r="120" spans="16:27">
+    <row r="120" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P120" t="s">
         <v>4351</v>
       </c>
@@ -33533,7 +33551,7 @@
         <v>4353</v>
       </c>
     </row>
-    <row r="121" spans="16:27">
+    <row r="121" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P121" t="s">
         <v>4354</v>
       </c>
@@ -33544,7 +33562,7 @@
         <v>4356</v>
       </c>
     </row>
-    <row r="122" spans="16:27">
+    <row r="122" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P122" t="s">
         <v>4357</v>
       </c>
@@ -33555,7 +33573,7 @@
         <v>4359</v>
       </c>
     </row>
-    <row r="123" spans="16:27">
+    <row r="123" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P123" t="s">
         <v>4360</v>
       </c>
@@ -33566,7 +33584,7 @@
         <v>4362</v>
       </c>
     </row>
-    <row r="124" spans="16:27">
+    <row r="124" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P124" t="s">
         <v>4363</v>
       </c>
@@ -33577,7 +33595,7 @@
         <v>4365</v>
       </c>
     </row>
-    <row r="125" spans="16:27">
+    <row r="125" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P125" t="s">
         <v>4366</v>
       </c>
@@ -33588,7 +33606,7 @@
         <v>4368</v>
       </c>
     </row>
-    <row r="126" spans="16:27">
+    <row r="126" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P126" t="s">
         <v>4369</v>
       </c>
@@ -33599,7 +33617,7 @@
         <v>4371</v>
       </c>
     </row>
-    <row r="127" spans="16:27">
+    <row r="127" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P127" t="s">
         <v>4372</v>
       </c>
@@ -33610,7 +33628,7 @@
         <v>4374</v>
       </c>
     </row>
-    <row r="128" spans="16:27">
+    <row r="128" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P128" t="s">
         <v>4375</v>
       </c>
@@ -33621,7 +33639,7 @@
         <v>4377</v>
       </c>
     </row>
-    <row r="129" spans="16:27">
+    <row r="129" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P129" t="s">
         <v>4378</v>
       </c>
@@ -33632,7 +33650,7 @@
         <v>4380</v>
       </c>
     </row>
-    <row r="130" spans="16:27">
+    <row r="130" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P130" t="s">
         <v>4381</v>
       </c>
@@ -33643,7 +33661,7 @@
         <v>4383</v>
       </c>
     </row>
-    <row r="131" spans="16:27">
+    <row r="131" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P131" t="s">
         <v>4384</v>
       </c>
@@ -33654,7 +33672,7 @@
         <v>4386</v>
       </c>
     </row>
-    <row r="132" spans="16:27">
+    <row r="132" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P132" t="s">
         <v>4387</v>
       </c>
@@ -33665,7 +33683,7 @@
         <v>4389</v>
       </c>
     </row>
-    <row r="133" spans="16:27">
+    <row r="133" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P133" t="s">
         <v>4390</v>
       </c>
@@ -33676,7 +33694,7 @@
         <v>4392</v>
       </c>
     </row>
-    <row r="134" spans="16:27">
+    <row r="134" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P134" t="s">
         <v>4393</v>
       </c>
@@ -33687,7 +33705,7 @@
         <v>4395</v>
       </c>
     </row>
-    <row r="135" spans="16:27">
+    <row r="135" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P135" t="s">
         <v>4396</v>
       </c>
@@ -33698,7 +33716,7 @@
         <v>4398</v>
       </c>
     </row>
-    <row r="136" spans="16:27">
+    <row r="136" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P136" t="s">
         <v>4399</v>
       </c>
@@ -33709,7 +33727,7 @@
         <v>4401</v>
       </c>
     </row>
-    <row r="137" spans="16:27">
+    <row r="137" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P137" t="s">
         <v>4402</v>
       </c>
@@ -33720,7 +33738,7 @@
         <v>4404</v>
       </c>
     </row>
-    <row r="138" spans="16:27">
+    <row r="138" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P138" t="s">
         <v>4405</v>
       </c>
@@ -33731,7 +33749,7 @@
         <v>4407</v>
       </c>
     </row>
-    <row r="139" spans="16:27">
+    <row r="139" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P139" t="s">
         <v>4408</v>
       </c>
@@ -33742,7 +33760,7 @@
         <v>4410</v>
       </c>
     </row>
-    <row r="140" spans="16:27">
+    <row r="140" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P140" t="s">
         <v>4411</v>
       </c>
@@ -33753,7 +33771,7 @@
         <v>4413</v>
       </c>
     </row>
-    <row r="141" spans="16:27">
+    <row r="141" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P141" t="s">
         <v>4414</v>
       </c>
@@ -33764,7 +33782,7 @@
         <v>4416</v>
       </c>
     </row>
-    <row r="142" spans="16:27">
+    <row r="142" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P142" t="s">
         <v>4417</v>
       </c>
@@ -33775,7 +33793,7 @@
         <v>4419</v>
       </c>
     </row>
-    <row r="143" spans="16:27">
+    <row r="143" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P143" t="s">
         <v>4420</v>
       </c>
@@ -33786,7 +33804,7 @@
         <v>4422</v>
       </c>
     </row>
-    <row r="144" spans="16:27">
+    <row r="144" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P144" t="s">
         <v>4423</v>
       </c>
@@ -33797,7 +33815,7 @@
         <v>4425</v>
       </c>
     </row>
-    <row r="145" spans="16:27">
+    <row r="145" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P145" t="s">
         <v>4426</v>
       </c>
@@ -33808,7 +33826,7 @@
         <v>4428</v>
       </c>
     </row>
-    <row r="146" spans="16:27">
+    <row r="146" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P146" t="s">
         <v>4429</v>
       </c>
@@ -33819,7 +33837,7 @@
         <v>4431</v>
       </c>
     </row>
-    <row r="147" spans="16:27">
+    <row r="147" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P147" t="s">
         <v>4432</v>
       </c>
@@ -33830,7 +33848,7 @@
         <v>4434</v>
       </c>
     </row>
-    <row r="148" spans="16:27">
+    <row r="148" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P148" t="s">
         <v>4435</v>
       </c>
@@ -33841,7 +33859,7 @@
         <v>4437</v>
       </c>
     </row>
-    <row r="149" spans="16:27">
+    <row r="149" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P149" t="s">
         <v>4438</v>
       </c>
@@ -33852,7 +33870,7 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="150" spans="16:27">
+    <row r="150" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P150" t="s">
         <v>4441</v>
       </c>
@@ -33863,7 +33881,7 @@
         <v>4443</v>
       </c>
     </row>
-    <row r="151" spans="16:27">
+    <row r="151" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P151" t="s">
         <v>4444</v>
       </c>
@@ -33874,7 +33892,7 @@
         <v>4446</v>
       </c>
     </row>
-    <row r="152" spans="16:27">
+    <row r="152" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P152" t="s">
         <v>4447</v>
       </c>
@@ -33885,7 +33903,7 @@
         <v>4449</v>
       </c>
     </row>
-    <row r="153" spans="16:27">
+    <row r="153" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P153" t="s">
         <v>4450</v>
       </c>
@@ -33896,7 +33914,7 @@
         <v>4452</v>
       </c>
     </row>
-    <row r="154" spans="16:27">
+    <row r="154" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P154" t="s">
         <v>4453</v>
       </c>
@@ -33907,7 +33925,7 @@
         <v>4455</v>
       </c>
     </row>
-    <row r="155" spans="16:27">
+    <row r="155" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P155" t="s">
         <v>4456</v>
       </c>
@@ -33918,7 +33936,7 @@
         <v>4458</v>
       </c>
     </row>
-    <row r="156" spans="16:27">
+    <row r="156" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P156" t="s">
         <v>4459</v>
       </c>
@@ -33929,7 +33947,7 @@
         <v>4461</v>
       </c>
     </row>
-    <row r="157" spans="16:27">
+    <row r="157" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P157" t="s">
         <v>4462</v>
       </c>
@@ -33940,7 +33958,7 @@
         <v>4464</v>
       </c>
     </row>
-    <row r="158" spans="16:27">
+    <row r="158" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P158" t="s">
         <v>4465</v>
       </c>
@@ -33951,7 +33969,7 @@
         <v>4467</v>
       </c>
     </row>
-    <row r="159" spans="16:27">
+    <row r="159" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P159" t="s">
         <v>4468</v>
       </c>
@@ -33962,7 +33980,7 @@
         <v>4470</v>
       </c>
     </row>
-    <row r="160" spans="16:27">
+    <row r="160" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P160" t="s">
         <v>4471</v>
       </c>
@@ -33973,7 +33991,7 @@
         <v>4473</v>
       </c>
     </row>
-    <row r="161" spans="16:27">
+    <row r="161" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P161" t="s">
         <v>4474</v>
       </c>
@@ -33984,7 +34002,7 @@
         <v>4476</v>
       </c>
     </row>
-    <row r="162" spans="16:27">
+    <row r="162" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P162" t="s">
         <v>4477</v>
       </c>
@@ -33995,7 +34013,7 @@
         <v>4479</v>
       </c>
     </row>
-    <row r="163" spans="16:27">
+    <row r="163" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P163" t="s">
         <v>4480</v>
       </c>
@@ -34006,7 +34024,7 @@
         <v>4482</v>
       </c>
     </row>
-    <row r="164" spans="16:27">
+    <row r="164" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P164" t="s">
         <v>4483</v>
       </c>
@@ -34017,7 +34035,7 @@
         <v>4485</v>
       </c>
     </row>
-    <row r="165" spans="16:27">
+    <row r="165" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P165" t="s">
         <v>4486</v>
       </c>
@@ -34028,7 +34046,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="166" spans="16:27">
+    <row r="166" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P166" t="s">
         <v>4489</v>
       </c>
@@ -34039,7 +34057,7 @@
         <v>4491</v>
       </c>
     </row>
-    <row r="167" spans="16:27">
+    <row r="167" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P167" t="s">
         <v>4492</v>
       </c>
@@ -34050,7 +34068,7 @@
         <v>4494</v>
       </c>
     </row>
-    <row r="168" spans="16:27">
+    <row r="168" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P168" t="s">
         <v>4495</v>
       </c>
@@ -34061,7 +34079,7 @@
         <v>4497</v>
       </c>
     </row>
-    <row r="169" spans="16:27">
+    <row r="169" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P169" t="s">
         <v>4498</v>
       </c>
@@ -34072,7 +34090,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="170" spans="16:27">
+    <row r="170" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P170" t="s">
         <v>4501</v>
       </c>
@@ -34083,7 +34101,7 @@
         <v>4503</v>
       </c>
     </row>
-    <row r="171" spans="16:27">
+    <row r="171" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P171" t="s">
         <v>4504</v>
       </c>
@@ -34094,7 +34112,7 @@
         <v>4506</v>
       </c>
     </row>
-    <row r="172" spans="16:27">
+    <row r="172" spans="16:27" x14ac:dyDescent="0.25">
       <c r="Z172" t="s">
         <v>4507</v>
       </c>
@@ -34102,7 +34120,7 @@
         <v>4508</v>
       </c>
     </row>
-    <row r="173" spans="16:27">
+    <row r="173" spans="16:27" x14ac:dyDescent="0.25">
       <c r="Z173" t="s">
         <v>4509</v>
       </c>
@@ -34110,7 +34128,7 @@
         <v>4510</v>
       </c>
     </row>
-    <row r="174" spans="16:27">
+    <row r="174" spans="16:27" x14ac:dyDescent="0.25">
       <c r="Z174" t="s">
         <v>4511</v>
       </c>
@@ -34118,7 +34136,7 @@
         <v>4512</v>
       </c>
     </row>
-    <row r="175" spans="16:27">
+    <row r="175" spans="16:27" x14ac:dyDescent="0.25">
       <c r="Z175" t="s">
         <v>4513</v>
       </c>
@@ -34126,7 +34144,7 @@
         <v>4514</v>
       </c>
     </row>
-    <row r="176" spans="16:27">
+    <row r="176" spans="16:27" x14ac:dyDescent="0.25">
       <c r="Z176" t="s">
         <v>4515</v>
       </c>
@@ -34134,7 +34152,7 @@
         <v>4516</v>
       </c>
     </row>
-    <row r="177" spans="26:27">
+    <row r="177" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z177" t="s">
         <v>4517</v>
       </c>
@@ -34142,7 +34160,7 @@
         <v>4518</v>
       </c>
     </row>
-    <row r="178" spans="26:27">
+    <row r="178" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z178" t="s">
         <v>4519</v>
       </c>
@@ -34150,7 +34168,7 @@
         <v>4520</v>
       </c>
     </row>
-    <row r="179" spans="26:27">
+    <row r="179" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z179" t="s">
         <v>4521</v>
       </c>
@@ -34158,7 +34176,7 @@
         <v>4522</v>
       </c>
     </row>
-    <row r="180" spans="26:27">
+    <row r="180" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z180" t="s">
         <v>4523</v>
       </c>
@@ -34166,7 +34184,7 @@
         <v>4524</v>
       </c>
     </row>
-    <row r="181" spans="26:27">
+    <row r="181" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z181" t="s">
         <v>4525</v>
       </c>
@@ -34174,7 +34192,7 @@
         <v>4526</v>
       </c>
     </row>
-    <row r="182" spans="26:27">
+    <row r="182" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z182" t="s">
         <v>4527</v>
       </c>
@@ -34182,7 +34200,7 @@
         <v>4528</v>
       </c>
     </row>
-    <row r="183" spans="26:27">
+    <row r="183" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z183" t="s">
         <v>4529</v>
       </c>
@@ -34190,7 +34208,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="184" spans="26:27">
+    <row r="184" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z184" t="s">
         <v>4531</v>
       </c>
@@ -34198,7 +34216,7 @@
         <v>4532</v>
       </c>
     </row>
-    <row r="185" spans="26:27">
+    <row r="185" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z185" t="s">
         <v>4533</v>
       </c>
@@ -34206,7 +34224,7 @@
         <v>4534</v>
       </c>
     </row>
-    <row r="186" spans="26:27">
+    <row r="186" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z186" t="s">
         <v>4535</v>
       </c>
@@ -34214,7 +34232,7 @@
         <v>4536</v>
       </c>
     </row>
-    <row r="187" spans="26:27">
+    <row r="187" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z187" t="s">
         <v>4537</v>
       </c>
@@ -34222,7 +34240,7 @@
         <v>4538</v>
       </c>
     </row>
-    <row r="188" spans="26:27">
+    <row r="188" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z188" t="s">
         <v>4539</v>
       </c>
@@ -34230,7 +34248,7 @@
         <v>4540</v>
       </c>
     </row>
-    <row r="189" spans="26:27">
+    <row r="189" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z189" t="s">
         <v>4541</v>
       </c>
@@ -34238,7 +34256,7 @@
         <v>4542</v>
       </c>
     </row>
-    <row r="190" spans="26:27">
+    <row r="190" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z190" t="s">
         <v>4543</v>
       </c>
@@ -34246,7 +34264,7 @@
         <v>4544</v>
       </c>
     </row>
-    <row r="191" spans="26:27">
+    <row r="191" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z191" t="s">
         <v>4545</v>
       </c>
@@ -34254,7 +34272,7 @@
         <v>4546</v>
       </c>
     </row>
-    <row r="192" spans="26:27">
+    <row r="192" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z192" t="s">
         <v>4547</v>
       </c>
@@ -34262,7 +34280,7 @@
         <v>4548</v>
       </c>
     </row>
-    <row r="193" spans="26:27">
+    <row r="193" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z193" t="s">
         <v>4549</v>
       </c>
@@ -34270,7 +34288,7 @@
         <v>4550</v>
       </c>
     </row>
-    <row r="194" spans="26:27">
+    <row r="194" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z194" t="s">
         <v>4551</v>
       </c>
@@ -34278,7 +34296,7 @@
         <v>4552</v>
       </c>
     </row>
-    <row r="195" spans="26:27">
+    <row r="195" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z195" t="s">
         <v>4553</v>
       </c>
@@ -34286,7 +34304,7 @@
         <v>4554</v>
       </c>
     </row>
-    <row r="196" spans="26:27">
+    <row r="196" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z196" t="s">
         <v>4555</v>
       </c>
@@ -34294,7 +34312,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="197" spans="26:27">
+    <row r="197" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z197" t="s">
         <v>4556</v>
       </c>
@@ -34302,7 +34320,7 @@
         <v>4557</v>
       </c>
     </row>
-    <row r="198" spans="26:27">
+    <row r="198" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z198" t="s">
         <v>4558</v>
       </c>
@@ -34310,7 +34328,7 @@
         <v>4559</v>
       </c>
     </row>
-    <row r="199" spans="26:27">
+    <row r="199" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z199" t="s">
         <v>4560</v>
       </c>
@@ -34318,7 +34336,7 @@
         <v>4561</v>
       </c>
     </row>
-    <row r="200" spans="26:27">
+    <row r="200" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z200" t="s">
         <v>4562</v>
       </c>
@@ -34326,7 +34344,7 @@
         <v>4563</v>
       </c>
     </row>
-    <row r="201" spans="26:27">
+    <row r="201" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z201" t="s">
         <v>4564</v>
       </c>
@@ -34334,7 +34352,7 @@
         <v>4565</v>
       </c>
     </row>
-    <row r="202" spans="26:27">
+    <row r="202" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z202" t="s">
         <v>4566</v>
       </c>
@@ -34342,7 +34360,7 @@
         <v>4567</v>
       </c>
     </row>
-    <row r="203" spans="26:27">
+    <row r="203" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z203" t="s">
         <v>4568</v>
       </c>
@@ -34350,7 +34368,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="204" spans="26:27">
+    <row r="204" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z204" t="s">
         <v>4570</v>
       </c>
@@ -34358,7 +34376,7 @@
         <v>4571</v>
       </c>
     </row>
-    <row r="205" spans="26:27">
+    <row r="205" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z205" t="s">
         <v>4572</v>
       </c>
@@ -34366,7 +34384,7 @@
         <v>4573</v>
       </c>
     </row>
-    <row r="206" spans="26:27">
+    <row r="206" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z206" t="s">
         <v>4574</v>
       </c>
@@ -34374,7 +34392,7 @@
         <v>4575</v>
       </c>
     </row>
-    <row r="207" spans="26:27">
+    <row r="207" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z207" t="s">
         <v>4576</v>
       </c>
@@ -34382,7 +34400,7 @@
         <v>4577</v>
       </c>
     </row>
-    <row r="208" spans="26:27">
+    <row r="208" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z208" t="s">
         <v>4578</v>
       </c>
@@ -34390,7 +34408,7 @@
         <v>4579</v>
       </c>
     </row>
-    <row r="209" spans="26:27">
+    <row r="209" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z209" t="s">
         <v>4580</v>
       </c>
@@ -34398,7 +34416,7 @@
         <v>4581</v>
       </c>
     </row>
-    <row r="210" spans="26:27">
+    <row r="210" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z210" t="s">
         <v>4582</v>
       </c>
@@ -34406,7 +34424,7 @@
         <v>4583</v>
       </c>
     </row>
-    <row r="211" spans="26:27">
+    <row r="211" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z211" t="s">
         <v>4584</v>
       </c>
@@ -34414,7 +34432,7 @@
         <v>4585</v>
       </c>
     </row>
-    <row r="212" spans="26:27">
+    <row r="212" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z212" t="s">
         <v>4586</v>
       </c>
@@ -34422,7 +34440,7 @@
         <v>4587</v>
       </c>
     </row>
-    <row r="213" spans="26:27">
+    <row r="213" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z213" t="s">
         <v>4588</v>
       </c>
@@ -34430,7 +34448,7 @@
         <v>4589</v>
       </c>
     </row>
-    <row r="214" spans="26:27">
+    <row r="214" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z214" t="s">
         <v>4590</v>
       </c>
@@ -34438,7 +34456,7 @@
         <v>4591</v>
       </c>
     </row>
-    <row r="215" spans="26:27">
+    <row r="215" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z215" t="s">
         <v>4592</v>
       </c>
@@ -34446,7 +34464,7 @@
         <v>4593</v>
       </c>
     </row>
-    <row r="216" spans="26:27">
+    <row r="216" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z216" t="s">
         <v>4594</v>
       </c>
@@ -34454,7 +34472,7 @@
         <v>4595</v>
       </c>
     </row>
-    <row r="217" spans="26:27">
+    <row r="217" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z217" t="s">
         <v>4596</v>
       </c>
@@ -34462,7 +34480,7 @@
         <v>4597</v>
       </c>
     </row>
-    <row r="218" spans="26:27">
+    <row r="218" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z218" t="s">
         <v>4598</v>
       </c>
@@ -34470,7 +34488,7 @@
         <v>4599</v>
       </c>
     </row>
-    <row r="219" spans="26:27">
+    <row r="219" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z219" t="s">
         <v>4600</v>
       </c>
@@ -34478,7 +34496,7 @@
         <v>4601</v>
       </c>
     </row>
-    <row r="220" spans="26:27">
+    <row r="220" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z220" t="s">
         <v>4602</v>
       </c>
@@ -34486,7 +34504,7 @@
         <v>4603</v>
       </c>
     </row>
-    <row r="221" spans="26:27">
+    <row r="221" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z221" t="s">
         <v>4604</v>
       </c>
@@ -34494,7 +34512,7 @@
         <v>4605</v>
       </c>
     </row>
-    <row r="222" spans="26:27">
+    <row r="222" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z222" t="s">
         <v>4606</v>
       </c>
@@ -34502,7 +34520,7 @@
         <v>4607</v>
       </c>
     </row>
-    <row r="223" spans="26:27">
+    <row r="223" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z223" t="s">
         <v>4608</v>
       </c>
@@ -34510,7 +34528,7 @@
         <v>4609</v>
       </c>
     </row>
-    <row r="224" spans="26:27">
+    <row r="224" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z224" t="s">
         <v>4610</v>
       </c>
@@ -34518,7 +34536,7 @@
         <v>4611</v>
       </c>
     </row>
-    <row r="225" spans="26:27">
+    <row r="225" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z225" t="s">
         <v>4612</v>
       </c>
@@ -34526,7 +34544,7 @@
         <v>4613</v>
       </c>
     </row>
-    <row r="226" spans="26:27">
+    <row r="226" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z226" t="s">
         <v>4614</v>
       </c>
@@ -34534,7 +34552,7 @@
         <v>4615</v>
       </c>
     </row>
-    <row r="227" spans="26:27">
+    <row r="227" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z227" t="s">
         <v>4616</v>
       </c>
@@ -34542,92 +34560,92 @@
         <v>4617</v>
       </c>
     </row>
-    <row r="228" spans="26:27">
+    <row r="228" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z228" t="s">
         <v>4618</v>
       </c>
     </row>
-    <row r="229" spans="26:27">
+    <row r="229" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z229" t="s">
         <v>4619</v>
       </c>
     </row>
-    <row r="230" spans="26:27">
+    <row r="230" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z230" t="s">
         <v>4620</v>
       </c>
     </row>
-    <row r="231" spans="26:27">
+    <row r="231" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z231" t="s">
         <v>4621</v>
       </c>
     </row>
-    <row r="232" spans="26:27">
+    <row r="232" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z232" t="s">
         <v>4622</v>
       </c>
     </row>
-    <row r="233" spans="26:27">
+    <row r="233" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z233" t="s">
         <v>4623</v>
       </c>
     </row>
-    <row r="234" spans="26:27">
+    <row r="234" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z234" t="s">
         <v>4624</v>
       </c>
     </row>
-    <row r="235" spans="26:27">
+    <row r="235" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z235" t="s">
         <v>4625</v>
       </c>
     </row>
-    <row r="236" spans="26:27">
+    <row r="236" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z236" t="s">
         <v>4626</v>
       </c>
     </row>
-    <row r="237" spans="26:27">
+    <row r="237" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z237" t="s">
         <v>4627</v>
       </c>
     </row>
-    <row r="238" spans="26:27">
+    <row r="238" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z238" t="s">
         <v>4628</v>
       </c>
     </row>
-    <row r="239" spans="26:27">
+    <row r="239" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z239" t="s">
         <v>4629</v>
       </c>
     </row>
-    <row r="240" spans="26:27">
+    <row r="240" spans="26:27" x14ac:dyDescent="0.25">
       <c r="Z240" t="s">
         <v>4630</v>
       </c>
     </row>
-    <row r="241" spans="26:26">
+    <row r="241" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z241" t="s">
         <v>4631</v>
       </c>
     </row>
-    <row r="242" spans="26:26">
+    <row r="242" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z242" t="s">
         <v>4632</v>
       </c>
     </row>
-    <row r="243" spans="26:26">
+    <row r="243" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z243" t="s">
         <v>4633</v>
       </c>
     </row>
-    <row r="244" spans="26:26">
+    <row r="244" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z244" t="s">
         <v>4634</v>
       </c>
     </row>
-    <row r="245" spans="26:26">
+    <row r="245" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z245" t="s">
         <v>4635</v>
       </c>
@@ -34643,9 +34661,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4636</v>
       </c>
@@ -34755,7 +34773,7 @@
         <v>4668</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4669</v>
       </c>
@@ -34865,7 +34883,7 @@
         <v>4703</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4704</v>
       </c>
@@ -34975,7 +34993,7 @@
         <v>2691</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4737</v>
       </c>
@@ -35043,7 +35061,7 @@
         <v>4756</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4757</v>
       </c>
@@ -35105,7 +35123,7 @@
         <v>4774</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4775</v>
       </c>
@@ -35161,7 +35179,7 @@
         <v>4790</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4791</v>
       </c>
@@ -35211,7 +35229,7 @@
         <v>3190</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4804</v>
       </c>
@@ -35258,7 +35276,7 @@
         <v>3229</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4816</v>
       </c>
@@ -35302,7 +35320,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>4827</v>
       </c>
@@ -35340,7 +35358,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>4836</v>
       </c>
@@ -35378,7 +35396,7 @@
         <v>4845</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>4846</v>
       </c>
@@ -35413,7 +35431,7 @@
         <v>4854</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>4855</v>
       </c>
@@ -35448,7 +35466,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>4863</v>
       </c>
@@ -35480,7 +35498,7 @@
         <v>4871</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>4872</v>
       </c>
@@ -35512,7 +35530,7 @@
         <v>4880</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>4881</v>
       </c>
@@ -35544,7 +35562,7 @@
         <v>4890</v>
       </c>
     </row>
-    <row r="17" spans="2:36">
+    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>4891</v>
       </c>
@@ -35576,7 +35594,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="18" spans="2:36">
+    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>4901</v>
       </c>
@@ -35608,7 +35626,7 @@
         <v>4909</v>
       </c>
     </row>
-    <row r="19" spans="2:36">
+    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>4910</v>
       </c>
@@ -35637,7 +35655,7 @@
         <v>4918</v>
       </c>
     </row>
-    <row r="20" spans="2:36">
+    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>4919</v>
       </c>
@@ -35657,7 +35675,7 @@
         <v>4924</v>
       </c>
     </row>
-    <row r="21" spans="2:36">
+    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>4925</v>
       </c>
@@ -35677,7 +35695,7 @@
         <v>4930</v>
       </c>
     </row>
-    <row r="22" spans="2:36">
+    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>4931</v>
       </c>
@@ -35697,7 +35715,7 @@
         <v>4936</v>
       </c>
     </row>
-    <row r="23" spans="2:36">
+    <row r="23" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>4937</v>
       </c>
@@ -35717,7 +35735,7 @@
         <v>4942</v>
       </c>
     </row>
-    <row r="24" spans="2:36">
+    <row r="24" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>4943</v>
       </c>
@@ -35737,7 +35755,7 @@
         <v>4948</v>
       </c>
     </row>
-    <row r="25" spans="2:36">
+    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>4949</v>
       </c>
@@ -35757,7 +35775,7 @@
         <v>4954</v>
       </c>
     </row>
-    <row r="26" spans="2:36">
+    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>4955</v>
       </c>
@@ -35777,7 +35795,7 @@
         <v>4887</v>
       </c>
     </row>
-    <row r="27" spans="2:36">
+    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>4960</v>
       </c>
@@ -35797,7 +35815,7 @@
         <v>4964</v>
       </c>
     </row>
-    <row r="28" spans="2:36">
+    <row r="28" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>4965</v>
       </c>
@@ -35817,7 +35835,7 @@
         <v>4969</v>
       </c>
     </row>
-    <row r="29" spans="2:36">
+    <row r="29" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>4970</v>
       </c>
@@ -35837,7 +35855,7 @@
         <v>4973</v>
       </c>
     </row>
-    <row r="30" spans="2:36">
+    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>4974</v>
       </c>
@@ -35857,7 +35875,7 @@
         <v>4978</v>
       </c>
     </row>
-    <row r="31" spans="2:36">
+    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>4979</v>
       </c>
@@ -35877,7 +35895,7 @@
         <v>4983</v>
       </c>
     </row>
-    <row r="32" spans="2:36">
+    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>4984</v>
       </c>
@@ -35894,7 +35912,7 @@
         <v>4987</v>
       </c>
     </row>
-    <row r="33" spans="2:33">
+    <row r="33" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>4988</v>
       </c>
@@ -35911,7 +35929,7 @@
         <v>4991</v>
       </c>
     </row>
-    <row r="34" spans="2:33">
+    <row r="34" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>4992</v>
       </c>
@@ -35928,7 +35946,7 @@
         <v>4995</v>
       </c>
     </row>
-    <row r="35" spans="2:33">
+    <row r="35" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>4996</v>
       </c>
@@ -35945,7 +35963,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="36" spans="2:33">
+    <row r="36" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>5001</v>
       </c>
@@ -35962,7 +35980,7 @@
         <v>5004</v>
       </c>
     </row>
-    <row r="37" spans="2:33">
+    <row r="37" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>5005</v>
       </c>
@@ -35979,7 +35997,7 @@
         <v>5009</v>
       </c>
     </row>
-    <row r="38" spans="2:33">
+    <row r="38" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>5010</v>
       </c>
@@ -35996,7 +36014,7 @@
         <v>5014</v>
       </c>
     </row>
-    <row r="39" spans="2:33">
+    <row r="39" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>5015</v>
       </c>
@@ -36013,7 +36031,7 @@
         <v>5019</v>
       </c>
     </row>
-    <row r="40" spans="2:33">
+    <row r="40" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>5020</v>
       </c>
@@ -36030,7 +36048,7 @@
         <v>5024</v>
       </c>
     </row>
-    <row r="41" spans="2:33">
+    <row r="41" spans="2:33" x14ac:dyDescent="0.25">
       <c r="G41" t="s">
         <v>5025</v>
       </c>
@@ -36041,7 +36059,7 @@
         <v>5027</v>
       </c>
     </row>
-    <row r="42" spans="2:33">
+    <row r="42" spans="2:33" x14ac:dyDescent="0.25">
       <c r="G42" t="s">
         <v>5028</v>
       </c>
@@ -36049,7 +36067,7 @@
         <v>5029</v>
       </c>
     </row>
-    <row r="43" spans="2:33">
+    <row r="43" spans="2:33" x14ac:dyDescent="0.25">
       <c r="G43" t="s">
         <v>5030</v>
       </c>
@@ -36057,7 +36075,7 @@
         <v>5031</v>
       </c>
     </row>
-    <row r="44" spans="2:33">
+    <row r="44" spans="2:33" x14ac:dyDescent="0.25">
       <c r="G44" t="s">
         <v>5032</v>
       </c>
@@ -36065,7 +36083,7 @@
         <v>5033</v>
       </c>
     </row>
-    <row r="45" spans="2:33">
+    <row r="45" spans="2:33" x14ac:dyDescent="0.25">
       <c r="G45" t="s">
         <v>5034</v>
       </c>
@@ -36073,7 +36091,7 @@
         <v>5035</v>
       </c>
     </row>
-    <row r="46" spans="2:33">
+    <row r="46" spans="2:33" x14ac:dyDescent="0.25">
       <c r="G46" t="s">
         <v>5036</v>
       </c>
@@ -36081,7 +36099,7 @@
         <v>5037</v>
       </c>
     </row>
-    <row r="47" spans="2:33">
+    <row r="47" spans="2:33" x14ac:dyDescent="0.25">
       <c r="G47" t="s">
         <v>5038</v>
       </c>
@@ -36089,7 +36107,7 @@
         <v>5039</v>
       </c>
     </row>
-    <row r="48" spans="2:33">
+    <row r="48" spans="2:33" x14ac:dyDescent="0.25">
       <c r="G48" t="s">
         <v>5040</v>
       </c>
@@ -36097,7 +36115,7 @@
         <v>5041</v>
       </c>
     </row>
-    <row r="49" spans="7:27">
+    <row r="49" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G49" t="s">
         <v>5042</v>
       </c>
@@ -36105,7 +36123,7 @@
         <v>5043</v>
       </c>
     </row>
-    <row r="50" spans="7:27">
+    <row r="50" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G50" t="s">
         <v>5044</v>
       </c>
@@ -36113,7 +36131,7 @@
         <v>5045</v>
       </c>
     </row>
-    <row r="51" spans="7:27">
+    <row r="51" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G51" t="s">
         <v>5046</v>
       </c>
@@ -36121,7 +36139,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="52" spans="7:27">
+    <row r="52" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G52" t="s">
         <v>5047</v>
       </c>
@@ -36129,7 +36147,7 @@
         <v>5048</v>
       </c>
     </row>
-    <row r="53" spans="7:27">
+    <row r="53" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G53" t="s">
         <v>5049</v>
       </c>
@@ -36137,7 +36155,7 @@
         <v>5050</v>
       </c>
     </row>
-    <row r="54" spans="7:27">
+    <row r="54" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G54" t="s">
         <v>5051</v>
       </c>
@@ -36145,7 +36163,7 @@
         <v>5052</v>
       </c>
     </row>
-    <row r="55" spans="7:27">
+    <row r="55" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G55" t="s">
         <v>5053</v>
       </c>
@@ -36153,7 +36171,7 @@
         <v>5054</v>
       </c>
     </row>
-    <row r="56" spans="7:27">
+    <row r="56" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G56" t="s">
         <v>5055</v>
       </c>
@@ -36161,7 +36179,7 @@
         <v>5056</v>
       </c>
     </row>
-    <row r="57" spans="7:27">
+    <row r="57" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G57" t="s">
         <v>5057</v>
       </c>
@@ -36169,7 +36187,7 @@
         <v>5058</v>
       </c>
     </row>
-    <row r="58" spans="7:27">
+    <row r="58" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G58" t="s">
         <v>5059</v>
       </c>
@@ -36177,7 +36195,7 @@
         <v>5060</v>
       </c>
     </row>
-    <row r="59" spans="7:27">
+    <row r="59" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G59" t="s">
         <v>5061</v>
       </c>
@@ -36185,7 +36203,7 @@
         <v>5062</v>
       </c>
     </row>
-    <row r="60" spans="7:27">
+    <row r="60" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G60" t="s">
         <v>5063</v>
       </c>
@@ -36193,7 +36211,7 @@
         <v>5064</v>
       </c>
     </row>
-    <row r="61" spans="7:27">
+    <row r="61" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G61" t="s">
         <v>5065</v>
       </c>
@@ -36201,7 +36219,7 @@
         <v>5066</v>
       </c>
     </row>
-    <row r="62" spans="7:27">
+    <row r="62" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G62" t="s">
         <v>5067</v>
       </c>
@@ -36209,7 +36227,7 @@
         <v>5068</v>
       </c>
     </row>
-    <row r="63" spans="7:27">
+    <row r="63" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G63" t="s">
         <v>5069</v>
       </c>
@@ -36217,7 +36235,7 @@
         <v>5070</v>
       </c>
     </row>
-    <row r="64" spans="7:27">
+    <row r="64" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G64" t="s">
         <v>5071</v>
       </c>
@@ -36225,7 +36243,7 @@
         <v>5072</v>
       </c>
     </row>
-    <row r="65" spans="7:27">
+    <row r="65" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G65" t="s">
         <v>5073</v>
       </c>
@@ -36233,7 +36251,7 @@
         <v>5074</v>
       </c>
     </row>
-    <row r="66" spans="7:27">
+    <row r="66" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G66" t="s">
         <v>5075</v>
       </c>
@@ -36241,7 +36259,7 @@
         <v>5076</v>
       </c>
     </row>
-    <row r="67" spans="7:27">
+    <row r="67" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G67" t="s">
         <v>5077</v>
       </c>
@@ -36249,7 +36267,7 @@
         <v>5078</v>
       </c>
     </row>
-    <row r="68" spans="7:27">
+    <row r="68" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G68" t="s">
         <v>5079</v>
       </c>
@@ -36257,7 +36275,7 @@
         <v>5080</v>
       </c>
     </row>
-    <row r="69" spans="7:27">
+    <row r="69" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G69" t="s">
         <v>5081</v>
       </c>
@@ -36265,7 +36283,7 @@
         <v>5082</v>
       </c>
     </row>
-    <row r="70" spans="7:27">
+    <row r="70" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G70" t="s">
         <v>5083</v>
       </c>
@@ -36273,7 +36291,7 @@
         <v>5084</v>
       </c>
     </row>
-    <row r="71" spans="7:27">
+    <row r="71" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G71" t="s">
         <v>5085</v>
       </c>
@@ -36281,7 +36299,7 @@
         <v>5086</v>
       </c>
     </row>
-    <row r="72" spans="7:27">
+    <row r="72" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G72" t="s">
         <v>5087</v>
       </c>
@@ -36289,7 +36307,7 @@
         <v>5088</v>
       </c>
     </row>
-    <row r="73" spans="7:27">
+    <row r="73" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G73" t="s">
         <v>5089</v>
       </c>
@@ -36297,7 +36315,7 @@
         <v>5090</v>
       </c>
     </row>
-    <row r="74" spans="7:27">
+    <row r="74" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G74" t="s">
         <v>5091</v>
       </c>
@@ -36305,7 +36323,7 @@
         <v>5092</v>
       </c>
     </row>
-    <row r="75" spans="7:27">
+    <row r="75" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G75" t="s">
         <v>5093</v>
       </c>
@@ -36313,7 +36331,7 @@
         <v>5094</v>
       </c>
     </row>
-    <row r="76" spans="7:27">
+    <row r="76" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G76" t="s">
         <v>5095</v>
       </c>
@@ -36321,7 +36339,7 @@
         <v>5096</v>
       </c>
     </row>
-    <row r="77" spans="7:27">
+    <row r="77" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G77" t="s">
         <v>5097</v>
       </c>
@@ -36329,7 +36347,7 @@
         <v>5098</v>
       </c>
     </row>
-    <row r="78" spans="7:27">
+    <row r="78" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G78" t="s">
         <v>5099</v>
       </c>
@@ -36337,7 +36355,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="79" spans="7:27">
+    <row r="79" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G79" t="s">
         <v>5101</v>
       </c>
@@ -36345,7 +36363,7 @@
         <v>5102</v>
       </c>
     </row>
-    <row r="80" spans="7:27">
+    <row r="80" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G80" t="s">
         <v>5103</v>
       </c>
@@ -36353,7 +36371,7 @@
         <v>5104</v>
       </c>
     </row>
-    <row r="81" spans="7:27">
+    <row r="81" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G81" t="s">
         <v>5105</v>
       </c>
@@ -36361,7 +36379,7 @@
         <v>5106</v>
       </c>
     </row>
-    <row r="82" spans="7:27">
+    <row r="82" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G82" t="s">
         <v>5107</v>
       </c>
@@ -36369,7 +36387,7 @@
         <v>5108</v>
       </c>
     </row>
-    <row r="83" spans="7:27">
+    <row r="83" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G83" t="s">
         <v>5109</v>
       </c>
@@ -36377,7 +36395,7 @@
         <v>5110</v>
       </c>
     </row>
-    <row r="84" spans="7:27">
+    <row r="84" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G84" t="s">
         <v>5111</v>
       </c>
@@ -36385,7 +36403,7 @@
         <v>5112</v>
       </c>
     </row>
-    <row r="85" spans="7:27">
+    <row r="85" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G85" t="s">
         <v>5113</v>
       </c>
@@ -36393,7 +36411,7 @@
         <v>5114</v>
       </c>
     </row>
-    <row r="86" spans="7:27">
+    <row r="86" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G86" t="s">
         <v>5115</v>
       </c>
@@ -36401,7 +36419,7 @@
         <v>5116</v>
       </c>
     </row>
-    <row r="87" spans="7:27">
+    <row r="87" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G87" t="s">
         <v>5117</v>
       </c>
@@ -36409,7 +36427,7 @@
         <v>5118</v>
       </c>
     </row>
-    <row r="88" spans="7:27">
+    <row r="88" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G88" t="s">
         <v>5119</v>
       </c>
@@ -36417,7 +36435,7 @@
         <v>5120</v>
       </c>
     </row>
-    <row r="89" spans="7:27">
+    <row r="89" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G89" t="s">
         <v>5121</v>
       </c>
@@ -36425,7 +36443,7 @@
         <v>5122</v>
       </c>
     </row>
-    <row r="90" spans="7:27">
+    <row r="90" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G90" t="s">
         <v>5123</v>
       </c>
@@ -36433,7 +36451,7 @@
         <v>5124</v>
       </c>
     </row>
-    <row r="91" spans="7:27">
+    <row r="91" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G91" t="s">
         <v>5125</v>
       </c>
@@ -36441,7 +36459,7 @@
         <v>5126</v>
       </c>
     </row>
-    <row r="92" spans="7:27">
+    <row r="92" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G92" t="s">
         <v>5127</v>
       </c>
@@ -36449,7 +36467,7 @@
         <v>5128</v>
       </c>
     </row>
-    <row r="93" spans="7:27">
+    <row r="93" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G93" t="s">
         <v>5129</v>
       </c>
@@ -36457,7 +36475,7 @@
         <v>5130</v>
       </c>
     </row>
-    <row r="94" spans="7:27">
+    <row r="94" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G94" t="s">
         <v>5131</v>
       </c>
@@ -36465,7 +36483,7 @@
         <v>5132</v>
       </c>
     </row>
-    <row r="95" spans="7:27">
+    <row r="95" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G95" t="s">
         <v>5133</v>
       </c>
@@ -36473,7 +36491,7 @@
         <v>5134</v>
       </c>
     </row>
-    <row r="96" spans="7:27">
+    <row r="96" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G96" t="s">
         <v>5135</v>
       </c>
@@ -36481,7 +36499,7 @@
         <v>5136</v>
       </c>
     </row>
-    <row r="97" spans="7:27">
+    <row r="97" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G97" t="s">
         <v>5137</v>
       </c>
@@ -36489,7 +36507,7 @@
         <v>5138</v>
       </c>
     </row>
-    <row r="98" spans="7:27">
+    <row r="98" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G98" t="s">
         <v>5139</v>
       </c>
@@ -36497,7 +36515,7 @@
         <v>5140</v>
       </c>
     </row>
-    <row r="99" spans="7:27">
+    <row r="99" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G99" t="s">
         <v>5141</v>
       </c>
@@ -36505,7 +36523,7 @@
         <v>5142</v>
       </c>
     </row>
-    <row r="100" spans="7:27">
+    <row r="100" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G100" t="s">
         <v>5143</v>
       </c>
@@ -36513,7 +36531,7 @@
         <v>5144</v>
       </c>
     </row>
-    <row r="101" spans="7:27">
+    <row r="101" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G101" t="s">
         <v>5145</v>
       </c>
@@ -36521,7 +36539,7 @@
         <v>5146</v>
       </c>
     </row>
-    <row r="102" spans="7:27">
+    <row r="102" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G102" t="s">
         <v>5147</v>
       </c>
@@ -36529,7 +36547,7 @@
         <v>5148</v>
       </c>
     </row>
-    <row r="103" spans="7:27">
+    <row r="103" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G103" t="s">
         <v>5149</v>
       </c>
@@ -36537,7 +36555,7 @@
         <v>5150</v>
       </c>
     </row>
-    <row r="104" spans="7:27">
+    <row r="104" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G104" t="s">
         <v>5151</v>
       </c>
@@ -36545,7 +36563,7 @@
         <v>5152</v>
       </c>
     </row>
-    <row r="105" spans="7:27">
+    <row r="105" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G105" t="s">
         <v>5153</v>
       </c>
@@ -36553,7 +36571,7 @@
         <v>5154</v>
       </c>
     </row>
-    <row r="106" spans="7:27">
+    <row r="106" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G106" t="s">
         <v>5155</v>
       </c>
@@ -36561,7 +36579,7 @@
         <v>5156</v>
       </c>
     </row>
-    <row r="107" spans="7:27">
+    <row r="107" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G107" t="s">
         <v>5157</v>
       </c>
@@ -36569,7 +36587,7 @@
         <v>5158</v>
       </c>
     </row>
-    <row r="108" spans="7:27">
+    <row r="108" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G108" t="s">
         <v>5159</v>
       </c>
@@ -36577,7 +36595,7 @@
         <v>5160</v>
       </c>
     </row>
-    <row r="109" spans="7:27">
+    <row r="109" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G109" t="s">
         <v>5161</v>
       </c>
@@ -36585,7 +36603,7 @@
         <v>5162</v>
       </c>
     </row>
-    <row r="110" spans="7:27">
+    <row r="110" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G110" t="s">
         <v>5163</v>
       </c>
@@ -36593,7 +36611,7 @@
         <v>5164</v>
       </c>
     </row>
-    <row r="111" spans="7:27">
+    <row r="111" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G111" t="s">
         <v>5165</v>
       </c>
@@ -36601,1032 +36619,1032 @@
         <v>5166</v>
       </c>
     </row>
-    <row r="112" spans="7:27">
+    <row r="112" spans="7:27" x14ac:dyDescent="0.25">
       <c r="AA112" t="s">
         <v>5167</v>
       </c>
     </row>
-    <row r="113" spans="27:27">
+    <row r="113" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA113" t="s">
         <v>5168</v>
       </c>
     </row>
-    <row r="114" spans="27:27">
+    <row r="114" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA114" t="s">
         <v>5169</v>
       </c>
     </row>
-    <row r="115" spans="27:27">
+    <row r="115" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA115" t="s">
         <v>5170</v>
       </c>
     </row>
-    <row r="116" spans="27:27">
+    <row r="116" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA116" t="s">
         <v>5171</v>
       </c>
     </row>
-    <row r="117" spans="27:27">
+    <row r="117" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA117" t="s">
         <v>5172</v>
       </c>
     </row>
-    <row r="118" spans="27:27">
+    <row r="118" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA118" t="s">
         <v>5173</v>
       </c>
     </row>
-    <row r="119" spans="27:27">
+    <row r="119" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA119" t="s">
         <v>5174</v>
       </c>
     </row>
-    <row r="120" spans="27:27">
+    <row r="120" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA120" t="s">
         <v>5175</v>
       </c>
     </row>
-    <row r="121" spans="27:27">
+    <row r="121" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA121" t="s">
         <v>5176</v>
       </c>
     </row>
-    <row r="122" spans="27:27">
+    <row r="122" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA122" t="s">
         <v>5177</v>
       </c>
     </row>
-    <row r="123" spans="27:27">
+    <row r="123" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA123" t="s">
         <v>5178</v>
       </c>
     </row>
-    <row r="124" spans="27:27">
+    <row r="124" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA124" t="s">
         <v>5179</v>
       </c>
     </row>
-    <row r="125" spans="27:27">
+    <row r="125" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA125" t="s">
         <v>5180</v>
       </c>
     </row>
-    <row r="126" spans="27:27">
+    <row r="126" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA126" t="s">
         <v>5181</v>
       </c>
     </row>
-    <row r="127" spans="27:27">
+    <row r="127" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA127" t="s">
         <v>5182</v>
       </c>
     </row>
-    <row r="128" spans="27:27">
+    <row r="128" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA128" t="s">
         <v>5183</v>
       </c>
     </row>
-    <row r="129" spans="27:27">
+    <row r="129" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA129" t="s">
         <v>5184</v>
       </c>
     </row>
-    <row r="130" spans="27:27">
+    <row r="130" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA130" t="s">
         <v>5185</v>
       </c>
     </row>
-    <row r="131" spans="27:27">
+    <row r="131" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA131" t="s">
         <v>5186</v>
       </c>
     </row>
-    <row r="132" spans="27:27">
+    <row r="132" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA132" t="s">
         <v>5187</v>
       </c>
     </row>
-    <row r="133" spans="27:27">
+    <row r="133" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA133" t="s">
         <v>5188</v>
       </c>
     </row>
-    <row r="134" spans="27:27">
+    <row r="134" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA134" t="s">
         <v>5189</v>
       </c>
     </row>
-    <row r="135" spans="27:27">
+    <row r="135" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA135" t="s">
         <v>5190</v>
       </c>
     </row>
-    <row r="136" spans="27:27">
+    <row r="136" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA136" t="s">
         <v>5191</v>
       </c>
     </row>
-    <row r="137" spans="27:27">
+    <row r="137" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA137" t="s">
         <v>5192</v>
       </c>
     </row>
-    <row r="138" spans="27:27">
+    <row r="138" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA138" t="s">
         <v>5193</v>
       </c>
     </row>
-    <row r="139" spans="27:27">
+    <row r="139" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA139" t="s">
         <v>5194</v>
       </c>
     </row>
-    <row r="140" spans="27:27">
+    <row r="140" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA140" t="s">
         <v>5195</v>
       </c>
     </row>
-    <row r="141" spans="27:27">
+    <row r="141" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA141" t="s">
         <v>5196</v>
       </c>
     </row>
-    <row r="142" spans="27:27">
+    <row r="142" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA142" t="s">
         <v>5197</v>
       </c>
     </row>
-    <row r="143" spans="27:27">
+    <row r="143" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA143" t="s">
         <v>5198</v>
       </c>
     </row>
-    <row r="144" spans="27:27">
+    <row r="144" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA144" t="s">
         <v>5199</v>
       </c>
     </row>
-    <row r="145" spans="27:27">
+    <row r="145" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA145" t="s">
         <v>5200</v>
       </c>
     </row>
-    <row r="146" spans="27:27">
+    <row r="146" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA146" t="s">
         <v>5201</v>
       </c>
     </row>
-    <row r="147" spans="27:27">
+    <row r="147" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA147" t="s">
         <v>5202</v>
       </c>
     </row>
-    <row r="148" spans="27:27">
+    <row r="148" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA148" t="s">
         <v>5203</v>
       </c>
     </row>
-    <row r="149" spans="27:27">
+    <row r="149" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA149" t="s">
         <v>5204</v>
       </c>
     </row>
-    <row r="150" spans="27:27">
+    <row r="150" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA150" t="s">
         <v>5205</v>
       </c>
     </row>
-    <row r="151" spans="27:27">
+    <row r="151" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA151" t="s">
         <v>5206</v>
       </c>
     </row>
-    <row r="152" spans="27:27">
+    <row r="152" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA152" t="s">
         <v>5207</v>
       </c>
     </row>
-    <row r="153" spans="27:27">
+    <row r="153" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA153" t="s">
         <v>5208</v>
       </c>
     </row>
-    <row r="154" spans="27:27">
+    <row r="154" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA154" t="s">
         <v>5209</v>
       </c>
     </row>
-    <row r="155" spans="27:27">
+    <row r="155" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA155" t="s">
         <v>5210</v>
       </c>
     </row>
-    <row r="156" spans="27:27">
+    <row r="156" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA156" t="s">
         <v>5211</v>
       </c>
     </row>
-    <row r="157" spans="27:27">
+    <row r="157" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA157" t="s">
         <v>5212</v>
       </c>
     </row>
-    <row r="158" spans="27:27">
+    <row r="158" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA158" t="s">
         <v>5213</v>
       </c>
     </row>
-    <row r="159" spans="27:27">
+    <row r="159" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA159" t="s">
         <v>5214</v>
       </c>
     </row>
-    <row r="160" spans="27:27">
+    <row r="160" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA160" t="s">
         <v>5215</v>
       </c>
     </row>
-    <row r="161" spans="27:27">
+    <row r="161" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA161" t="s">
         <v>5216</v>
       </c>
     </row>
-    <row r="162" spans="27:27">
+    <row r="162" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA162" t="s">
         <v>5217</v>
       </c>
     </row>
-    <row r="163" spans="27:27">
+    <row r="163" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA163" t="s">
         <v>5218</v>
       </c>
     </row>
-    <row r="164" spans="27:27">
+    <row r="164" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA164" t="s">
         <v>5219</v>
       </c>
     </row>
-    <row r="165" spans="27:27">
+    <row r="165" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA165" t="s">
         <v>5220</v>
       </c>
     </row>
-    <row r="166" spans="27:27">
+    <row r="166" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA166" t="s">
         <v>5221</v>
       </c>
     </row>
-    <row r="167" spans="27:27">
+    <row r="167" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA167" t="s">
         <v>5222</v>
       </c>
     </row>
-    <row r="168" spans="27:27">
+    <row r="168" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA168" t="s">
         <v>5223</v>
       </c>
     </row>
-    <row r="169" spans="27:27">
+    <row r="169" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA169" t="s">
         <v>5224</v>
       </c>
     </row>
-    <row r="170" spans="27:27">
+    <row r="170" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA170" t="s">
         <v>5225</v>
       </c>
     </row>
-    <row r="171" spans="27:27">
+    <row r="171" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA171" t="s">
         <v>5226</v>
       </c>
     </row>
-    <row r="172" spans="27:27">
+    <row r="172" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA172" t="s">
         <v>5227</v>
       </c>
     </row>
-    <row r="173" spans="27:27">
+    <row r="173" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA173" t="s">
         <v>5228</v>
       </c>
     </row>
-    <row r="174" spans="27:27">
+    <row r="174" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA174" t="s">
         <v>5229</v>
       </c>
     </row>
-    <row r="175" spans="27:27">
+    <row r="175" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA175" t="s">
         <v>5230</v>
       </c>
     </row>
-    <row r="176" spans="27:27">
+    <row r="176" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA176" t="s">
         <v>5231</v>
       </c>
     </row>
-    <row r="177" spans="27:27">
+    <row r="177" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA177" t="s">
         <v>5232</v>
       </c>
     </row>
-    <row r="178" spans="27:27">
+    <row r="178" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA178" t="s">
         <v>5233</v>
       </c>
     </row>
-    <row r="179" spans="27:27">
+    <row r="179" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA179" t="s">
         <v>5234</v>
       </c>
     </row>
-    <row r="180" spans="27:27">
+    <row r="180" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA180" t="s">
         <v>5235</v>
       </c>
     </row>
-    <row r="181" spans="27:27">
+    <row r="181" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA181" t="s">
         <v>5236</v>
       </c>
     </row>
-    <row r="182" spans="27:27">
+    <row r="182" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA182" t="s">
         <v>5237</v>
       </c>
     </row>
-    <row r="183" spans="27:27">
+    <row r="183" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA183" t="s">
         <v>5238</v>
       </c>
     </row>
-    <row r="184" spans="27:27">
+    <row r="184" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA184" t="s">
         <v>5239</v>
       </c>
     </row>
-    <row r="185" spans="27:27">
+    <row r="185" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA185" t="s">
         <v>5240</v>
       </c>
     </row>
-    <row r="186" spans="27:27">
+    <row r="186" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA186" t="s">
         <v>5241</v>
       </c>
     </row>
-    <row r="187" spans="27:27">
+    <row r="187" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA187" t="s">
         <v>5242</v>
       </c>
     </row>
-    <row r="188" spans="27:27">
+    <row r="188" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA188" t="s">
         <v>5243</v>
       </c>
     </row>
-    <row r="189" spans="27:27">
+    <row r="189" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA189" t="s">
         <v>5244</v>
       </c>
     </row>
-    <row r="190" spans="27:27">
+    <row r="190" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA190" t="s">
         <v>5245</v>
       </c>
     </row>
-    <row r="191" spans="27:27">
+    <row r="191" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA191" t="s">
         <v>5246</v>
       </c>
     </row>
-    <row r="192" spans="27:27">
+    <row r="192" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA192" t="s">
         <v>5247</v>
       </c>
     </row>
-    <row r="193" spans="27:27">
+    <row r="193" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA193" t="s">
         <v>5248</v>
       </c>
     </row>
-    <row r="194" spans="27:27">
+    <row r="194" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA194" t="s">
         <v>5249</v>
       </c>
     </row>
-    <row r="195" spans="27:27">
+    <row r="195" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA195" t="s">
         <v>5250</v>
       </c>
     </row>
-    <row r="196" spans="27:27">
+    <row r="196" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA196" t="s">
         <v>5251</v>
       </c>
     </row>
-    <row r="197" spans="27:27">
+    <row r="197" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA197" t="s">
         <v>5252</v>
       </c>
     </row>
-    <row r="198" spans="27:27">
+    <row r="198" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA198" t="s">
         <v>5253</v>
       </c>
     </row>
-    <row r="199" spans="27:27">
+    <row r="199" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA199" t="s">
         <v>5254</v>
       </c>
     </row>
-    <row r="200" spans="27:27">
+    <row r="200" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA200" t="s">
         <v>5255</v>
       </c>
     </row>
-    <row r="201" spans="27:27">
+    <row r="201" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA201" t="s">
         <v>5256</v>
       </c>
     </row>
-    <row r="202" spans="27:27">
+    <row r="202" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA202" t="s">
         <v>5257</v>
       </c>
     </row>
-    <row r="203" spans="27:27">
+    <row r="203" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA203" t="s">
         <v>5258</v>
       </c>
     </row>
-    <row r="204" spans="27:27">
+    <row r="204" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA204" t="s">
         <v>5259</v>
       </c>
     </row>
-    <row r="205" spans="27:27">
+    <row r="205" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA205" t="s">
         <v>5260</v>
       </c>
     </row>
-    <row r="206" spans="27:27">
+    <row r="206" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA206" t="s">
         <v>5261</v>
       </c>
     </row>
-    <row r="207" spans="27:27">
+    <row r="207" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA207" t="s">
         <v>5262</v>
       </c>
     </row>
-    <row r="208" spans="27:27">
+    <row r="208" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA208" t="s">
         <v>5263</v>
       </c>
     </row>
-    <row r="209" spans="27:27">
+    <row r="209" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA209" t="s">
         <v>5264</v>
       </c>
     </row>
-    <row r="210" spans="27:27">
+    <row r="210" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA210" t="s">
         <v>5265</v>
       </c>
     </row>
-    <row r="211" spans="27:27">
+    <row r="211" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA211" t="s">
         <v>5266</v>
       </c>
     </row>
-    <row r="212" spans="27:27">
+    <row r="212" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA212" t="s">
         <v>5267</v>
       </c>
     </row>
-    <row r="213" spans="27:27">
+    <row r="213" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA213" t="s">
         <v>5268</v>
       </c>
     </row>
-    <row r="214" spans="27:27">
+    <row r="214" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA214" t="s">
         <v>5269</v>
       </c>
     </row>
-    <row r="215" spans="27:27">
+    <row r="215" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA215" t="s">
         <v>5270</v>
       </c>
     </row>
-    <row r="216" spans="27:27">
+    <row r="216" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA216" t="s">
         <v>5271</v>
       </c>
     </row>
-    <row r="217" spans="27:27">
+    <row r="217" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA217" t="s">
         <v>5272</v>
       </c>
     </row>
-    <row r="218" spans="27:27">
+    <row r="218" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA218" t="s">
         <v>5273</v>
       </c>
     </row>
-    <row r="219" spans="27:27">
+    <row r="219" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA219" t="s">
         <v>5274</v>
       </c>
     </row>
-    <row r="220" spans="27:27">
+    <row r="220" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA220" t="s">
         <v>5275</v>
       </c>
     </row>
-    <row r="221" spans="27:27">
+    <row r="221" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA221" t="s">
         <v>5276</v>
       </c>
     </row>
-    <row r="222" spans="27:27">
+    <row r="222" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA222" t="s">
         <v>5277</v>
       </c>
     </row>
-    <row r="223" spans="27:27">
+    <row r="223" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA223" t="s">
         <v>5278</v>
       </c>
     </row>
-    <row r="224" spans="27:27">
+    <row r="224" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA224" t="s">
         <v>5279</v>
       </c>
     </row>
-    <row r="225" spans="27:27">
+    <row r="225" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA225" t="s">
         <v>5280</v>
       </c>
     </row>
-    <row r="226" spans="27:27">
+    <row r="226" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA226" t="s">
         <v>5281</v>
       </c>
     </row>
-    <row r="227" spans="27:27">
+    <row r="227" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA227" t="s">
         <v>5282</v>
       </c>
     </row>
-    <row r="228" spans="27:27">
+    <row r="228" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA228" t="s">
         <v>5283</v>
       </c>
     </row>
-    <row r="229" spans="27:27">
+    <row r="229" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA229" t="s">
         <v>5284</v>
       </c>
     </row>
-    <row r="230" spans="27:27">
+    <row r="230" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA230" t="s">
         <v>5285</v>
       </c>
     </row>
-    <row r="231" spans="27:27">
+    <row r="231" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA231" t="s">
         <v>5286</v>
       </c>
     </row>
-    <row r="232" spans="27:27">
+    <row r="232" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA232" t="s">
         <v>5287</v>
       </c>
     </row>
-    <row r="233" spans="27:27">
+    <row r="233" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA233" t="s">
         <v>5288</v>
       </c>
     </row>
-    <row r="234" spans="27:27">
+    <row r="234" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA234" t="s">
         <v>5289</v>
       </c>
     </row>
-    <row r="235" spans="27:27">
+    <row r="235" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA235" t="s">
         <v>5290</v>
       </c>
     </row>
-    <row r="236" spans="27:27">
+    <row r="236" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA236" t="s">
         <v>5291</v>
       </c>
     </row>
-    <row r="237" spans="27:27">
+    <row r="237" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA237" t="s">
         <v>5292</v>
       </c>
     </row>
-    <row r="238" spans="27:27">
+    <row r="238" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA238" t="s">
         <v>5293</v>
       </c>
     </row>
-    <row r="239" spans="27:27">
+    <row r="239" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA239" t="s">
         <v>5294</v>
       </c>
     </row>
-    <row r="240" spans="27:27">
+    <row r="240" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA240" t="s">
         <v>5295</v>
       </c>
     </row>
-    <row r="241" spans="27:27">
+    <row r="241" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA241" t="s">
         <v>5296</v>
       </c>
     </row>
-    <row r="242" spans="27:27">
+    <row r="242" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA242" t="s">
         <v>5297</v>
       </c>
     </row>
-    <row r="243" spans="27:27">
+    <row r="243" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA243" t="s">
         <v>5298</v>
       </c>
     </row>
-    <row r="244" spans="27:27">
+    <row r="244" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA244" t="s">
         <v>5299</v>
       </c>
     </row>
-    <row r="245" spans="27:27">
+    <row r="245" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA245" t="s">
         <v>5300</v>
       </c>
     </row>
-    <row r="246" spans="27:27">
+    <row r="246" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA246" t="s">
         <v>5301</v>
       </c>
     </row>
-    <row r="247" spans="27:27">
+    <row r="247" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA247" t="s">
         <v>5302</v>
       </c>
     </row>
-    <row r="248" spans="27:27">
+    <row r="248" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA248" t="s">
         <v>5303</v>
       </c>
     </row>
-    <row r="249" spans="27:27">
+    <row r="249" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA249" t="s">
         <v>5304</v>
       </c>
     </row>
-    <row r="250" spans="27:27">
+    <row r="250" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA250" t="s">
         <v>5305</v>
       </c>
     </row>
-    <row r="251" spans="27:27">
+    <row r="251" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA251" t="s">
         <v>5306</v>
       </c>
     </row>
-    <row r="252" spans="27:27">
+    <row r="252" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA252" t="s">
         <v>5307</v>
       </c>
     </row>
-    <row r="253" spans="27:27">
+    <row r="253" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA253" t="s">
         <v>5308</v>
       </c>
     </row>
-    <row r="254" spans="27:27">
+    <row r="254" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA254" t="s">
         <v>5309</v>
       </c>
     </row>
-    <row r="255" spans="27:27">
+    <row r="255" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA255" t="s">
         <v>5310</v>
       </c>
     </row>
-    <row r="256" spans="27:27">
+    <row r="256" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA256" t="s">
         <v>5311</v>
       </c>
     </row>
-    <row r="257" spans="27:27">
+    <row r="257" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA257" t="s">
         <v>5312</v>
       </c>
     </row>
-    <row r="258" spans="27:27">
+    <row r="258" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA258" t="s">
         <v>5313</v>
       </c>
     </row>
-    <row r="259" spans="27:27">
+    <row r="259" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA259" t="s">
         <v>5314</v>
       </c>
     </row>
-    <row r="260" spans="27:27">
+    <row r="260" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA260" t="s">
         <v>5315</v>
       </c>
     </row>
-    <row r="261" spans="27:27">
+    <row r="261" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA261" t="s">
         <v>5316</v>
       </c>
     </row>
-    <row r="262" spans="27:27">
+    <row r="262" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA262" t="s">
         <v>5317</v>
       </c>
     </row>
-    <row r="263" spans="27:27">
+    <row r="263" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA263" t="s">
         <v>5318</v>
       </c>
     </row>
-    <row r="264" spans="27:27">
+    <row r="264" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA264" t="s">
         <v>5319</v>
       </c>
     </row>
-    <row r="265" spans="27:27">
+    <row r="265" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA265" t="s">
         <v>5320</v>
       </c>
     </row>
-    <row r="266" spans="27:27">
+    <row r="266" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA266" t="s">
         <v>5321</v>
       </c>
     </row>
-    <row r="267" spans="27:27">
+    <row r="267" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA267" t="s">
         <v>5322</v>
       </c>
     </row>
-    <row r="268" spans="27:27">
+    <row r="268" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA268" t="s">
         <v>5323</v>
       </c>
     </row>
-    <row r="269" spans="27:27">
+    <row r="269" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA269" t="s">
         <v>5324</v>
       </c>
     </row>
-    <row r="270" spans="27:27">
+    <row r="270" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA270" t="s">
         <v>5325</v>
       </c>
     </row>
-    <row r="271" spans="27:27">
+    <row r="271" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA271" t="s">
         <v>5326</v>
       </c>
     </row>
-    <row r="272" spans="27:27">
+    <row r="272" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA272" t="s">
         <v>5327</v>
       </c>
     </row>
-    <row r="273" spans="27:27">
+    <row r="273" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA273" t="s">
         <v>5328</v>
       </c>
     </row>
-    <row r="274" spans="27:27">
+    <row r="274" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA274" t="s">
         <v>5329</v>
       </c>
     </row>
-    <row r="275" spans="27:27">
+    <row r="275" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA275" t="s">
         <v>4557</v>
       </c>
     </row>
-    <row r="276" spans="27:27">
+    <row r="276" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA276" t="s">
         <v>5330</v>
       </c>
     </row>
-    <row r="277" spans="27:27">
+    <row r="277" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA277" t="s">
         <v>5331</v>
       </c>
     </row>
-    <row r="278" spans="27:27">
+    <row r="278" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA278" t="s">
         <v>5332</v>
       </c>
     </row>
-    <row r="279" spans="27:27">
+    <row r="279" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA279" t="s">
         <v>5333</v>
       </c>
     </row>
-    <row r="280" spans="27:27">
+    <row r="280" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA280" t="s">
         <v>5334</v>
       </c>
     </row>
-    <row r="281" spans="27:27">
+    <row r="281" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA281" t="s">
         <v>5335</v>
       </c>
     </row>
-    <row r="282" spans="27:27">
+    <row r="282" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA282" t="s">
         <v>5336</v>
       </c>
     </row>
-    <row r="283" spans="27:27">
+    <row r="283" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA283" t="s">
         <v>5337</v>
       </c>
     </row>
-    <row r="284" spans="27:27">
+    <row r="284" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA284" t="s">
         <v>5338</v>
       </c>
     </row>
-    <row r="285" spans="27:27">
+    <row r="285" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA285" t="s">
         <v>5339</v>
       </c>
     </row>
-    <row r="286" spans="27:27">
+    <row r="286" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA286" t="s">
         <v>5340</v>
       </c>
     </row>
-    <row r="287" spans="27:27">
+    <row r="287" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA287" t="s">
         <v>5341</v>
       </c>
     </row>
-    <row r="288" spans="27:27">
+    <row r="288" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA288" t="s">
         <v>5342</v>
       </c>
     </row>
-    <row r="289" spans="27:27">
+    <row r="289" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA289" t="s">
         <v>5343</v>
       </c>
     </row>
-    <row r="290" spans="27:27">
+    <row r="290" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA290" t="s">
         <v>5344</v>
       </c>
     </row>
-    <row r="291" spans="27:27">
+    <row r="291" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA291" t="s">
         <v>5345</v>
       </c>
     </row>
-    <row r="292" spans="27:27">
+    <row r="292" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA292" t="s">
         <v>5346</v>
       </c>
     </row>
-    <row r="293" spans="27:27">
+    <row r="293" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA293" t="s">
         <v>5347</v>
       </c>
     </row>
-    <row r="294" spans="27:27">
+    <row r="294" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA294" t="s">
         <v>5348</v>
       </c>
     </row>
-    <row r="295" spans="27:27">
+    <row r="295" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA295" t="s">
         <v>5349</v>
       </c>
     </row>
-    <row r="296" spans="27:27">
+    <row r="296" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA296" t="s">
         <v>5350</v>
       </c>
     </row>
-    <row r="297" spans="27:27">
+    <row r="297" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA297" t="s">
         <v>5351</v>
       </c>
     </row>
-    <row r="298" spans="27:27">
+    <row r="298" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA298" t="s">
         <v>5352</v>
       </c>
     </row>
-    <row r="299" spans="27:27">
+    <row r="299" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA299" t="s">
         <v>5353</v>
       </c>
     </row>
-    <row r="300" spans="27:27">
+    <row r="300" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA300" t="s">
         <v>5354</v>
       </c>
     </row>
-    <row r="301" spans="27:27">
+    <row r="301" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA301" t="s">
         <v>5355</v>
       </c>
     </row>
-    <row r="302" spans="27:27">
+    <row r="302" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA302" t="s">
         <v>5356</v>
       </c>
     </row>
-    <row r="303" spans="27:27">
+    <row r="303" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA303" t="s">
         <v>5357</v>
       </c>
     </row>
-    <row r="304" spans="27:27">
+    <row r="304" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA304" t="s">
         <v>5358</v>
       </c>
     </row>
-    <row r="305" spans="27:27">
+    <row r="305" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA305" t="s">
         <v>5359</v>
       </c>
     </row>
-    <row r="306" spans="27:27">
+    <row r="306" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA306" t="s">
         <v>5360</v>
       </c>
     </row>
-    <row r="307" spans="27:27">
+    <row r="307" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA307" t="s">
         <v>5361</v>
       </c>
     </row>
-    <row r="308" spans="27:27">
+    <row r="308" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA308" t="s">
         <v>5362</v>
       </c>
     </row>
-    <row r="309" spans="27:27">
+    <row r="309" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA309" t="s">
         <v>5363</v>
       </c>
     </row>
-    <row r="310" spans="27:27">
+    <row r="310" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA310" t="s">
         <v>5364</v>
       </c>
     </row>
-    <row r="311" spans="27:27">
+    <row r="311" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA311" t="s">
         <v>5365</v>
       </c>
     </row>
-    <row r="312" spans="27:27">
+    <row r="312" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA312" t="s">
         <v>5366</v>
       </c>
     </row>
-    <row r="313" spans="27:27">
+    <row r="313" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA313" t="s">
         <v>5367</v>
       </c>
     </row>
-    <row r="314" spans="27:27">
+    <row r="314" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA314" t="s">
         <v>5368</v>
       </c>
     </row>
-    <row r="315" spans="27:27">
+    <row r="315" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA315" t="s">
         <v>5369</v>
       </c>
     </row>
-    <row r="316" spans="27:27">
+    <row r="316" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA316" t="s">
         <v>5370</v>
       </c>
     </row>
-    <row r="317" spans="27:27">
+    <row r="317" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA317" t="s">
         <v>5371</v>
       </c>
@@ -37642,94 +37660,94 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5372</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5373</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5374</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5375</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5376</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5377</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5378</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5379</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5380</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5381</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5382</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5383</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5384</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5385</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5386</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5387</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5388</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5389</v>
       </c>
@@ -37745,9 +37763,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:56">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5390</v>
       </c>
@@ -37917,7 +37935,7 @@
         <v>5445</v>
       </c>
     </row>
-    <row r="2" spans="1:56">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5446</v>
       </c>
@@ -38087,7 +38105,7 @@
         <v>5495</v>
       </c>
     </row>
-    <row r="3" spans="1:56">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5496</v>
       </c>
@@ -38251,7 +38269,7 @@
         <v>5544</v>
       </c>
     </row>
-    <row r="4" spans="1:56">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5545</v>
       </c>
@@ -38397,7 +38415,7 @@
         <v>5588</v>
       </c>
     </row>
-    <row r="5" spans="1:56">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5589</v>
       </c>
@@ -38531,7 +38549,7 @@
         <v>5628</v>
       </c>
     </row>
-    <row r="6" spans="1:56">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5629</v>
       </c>
@@ -38656,7 +38674,7 @@
         <v>5666</v>
       </c>
     </row>
-    <row r="7" spans="1:56">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5667</v>
       </c>
@@ -38769,7 +38787,7 @@
         <v>5699</v>
       </c>
     </row>
-    <row r="8" spans="1:56">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5700</v>
       </c>
@@ -38876,7 +38894,7 @@
         <v>5731</v>
       </c>
     </row>
-    <row r="9" spans="1:56">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>5732</v>
       </c>
@@ -38968,7 +38986,7 @@
         <v>5758</v>
       </c>
     </row>
-    <row r="10" spans="1:56">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>5759</v>
       </c>
@@ -39051,7 +39069,7 @@
         <v>5782</v>
       </c>
     </row>
-    <row r="11" spans="1:56">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>5783</v>
       </c>
@@ -39131,7 +39149,7 @@
         <v>5806</v>
       </c>
     </row>
-    <row r="12" spans="1:56">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>5807</v>
       </c>
@@ -39211,7 +39229,7 @@
         <v>5831</v>
       </c>
     </row>
-    <row r="13" spans="1:56">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>5832</v>
       </c>
@@ -39285,7 +39303,7 @@
         <v>5854</v>
       </c>
     </row>
-    <row r="14" spans="1:56">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>5855</v>
       </c>
@@ -39353,7 +39371,7 @@
         <v>5757</v>
       </c>
     </row>
-    <row r="15" spans="1:56">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>5874</v>
       </c>
@@ -39412,7 +39430,7 @@
         <v>5781</v>
       </c>
     </row>
-    <row r="16" spans="1:56">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>5890</v>
       </c>
@@ -39465,7 +39483,7 @@
         <v>5805</v>
       </c>
     </row>
-    <row r="17" spans="2:54">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>5905</v>
       </c>
@@ -39515,7 +39533,7 @@
         <v>4871</v>
       </c>
     </row>
-    <row r="18" spans="2:54">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>5919</v>
       </c>
@@ -39562,7 +39580,7 @@
         <v>4880</v>
       </c>
     </row>
-    <row r="19" spans="2:54">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>5932</v>
       </c>
@@ -39600,7 +39618,7 @@
         <v>4890</v>
       </c>
     </row>
-    <row r="20" spans="2:54">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>5942</v>
       </c>
@@ -39638,7 +39656,7 @@
         <v>5952</v>
       </c>
     </row>
-    <row r="21" spans="2:54">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>5953</v>
       </c>
@@ -39676,7 +39694,7 @@
         <v>5963</v>
       </c>
     </row>
-    <row r="22" spans="2:54">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>5964</v>
       </c>
@@ -39714,7 +39732,7 @@
         <v>5974</v>
       </c>
     </row>
-    <row r="23" spans="2:54">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>5975</v>
       </c>
@@ -39743,7 +39761,7 @@
         <v>5981</v>
       </c>
     </row>
-    <row r="24" spans="2:54">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>5982</v>
       </c>
@@ -39772,7 +39790,7 @@
         <v>5987</v>
       </c>
     </row>
-    <row r="25" spans="2:54">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>5988</v>
       </c>
@@ -39801,7 +39819,7 @@
         <v>5995</v>
       </c>
     </row>
-    <row r="26" spans="2:54">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>5996</v>
       </c>
@@ -39830,7 +39848,7 @@
         <v>6004</v>
       </c>
     </row>
-    <row r="27" spans="2:54">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="R27" t="s">
         <v>6005</v>
       </c>
@@ -39856,7 +39874,7 @@
         <v>6012</v>
       </c>
     </row>
-    <row r="28" spans="2:54">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="R28" t="s">
         <v>6013</v>
       </c>
@@ -39882,7 +39900,7 @@
         <v>6020</v>
       </c>
     </row>
-    <row r="29" spans="2:54">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="R29" t="s">
         <v>6021</v>
       </c>
@@ -39908,7 +39926,7 @@
         <v>6028</v>
       </c>
     </row>
-    <row r="30" spans="2:54">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="R30" t="s">
         <v>6029</v>
       </c>
@@ -39931,7 +39949,7 @@
         <v>6035</v>
       </c>
     </row>
-    <row r="31" spans="2:54">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="R31" t="s">
         <v>6036</v>
       </c>
@@ -39954,7 +39972,7 @@
         <v>6042</v>
       </c>
     </row>
-    <row r="32" spans="2:54">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="R32" t="s">
         <v>6043</v>
       </c>
@@ -39977,7 +39995,7 @@
         <v>6049</v>
       </c>
     </row>
-    <row r="33" spans="18:54">
+    <row r="33" spans="18:54" x14ac:dyDescent="0.25">
       <c r="R33" t="s">
         <v>6050</v>
       </c>
@@ -40000,7 +40018,7 @@
         <v>6056</v>
       </c>
     </row>
-    <row r="34" spans="18:54">
+    <row r="34" spans="18:54" x14ac:dyDescent="0.25">
       <c r="R34" t="s">
         <v>6057</v>
       </c>
@@ -40023,7 +40041,7 @@
         <v>6063</v>
       </c>
     </row>
-    <row r="35" spans="18:54">
+    <row r="35" spans="18:54" x14ac:dyDescent="0.25">
       <c r="R35" t="s">
         <v>6064</v>
       </c>
@@ -40046,7 +40064,7 @@
         <v>6070</v>
       </c>
     </row>
-    <row r="36" spans="18:54">
+    <row r="36" spans="18:54" x14ac:dyDescent="0.25">
       <c r="R36" t="s">
         <v>6071</v>
       </c>
@@ -40069,7 +40087,7 @@
         <v>6077</v>
       </c>
     </row>
-    <row r="37" spans="18:54">
+    <row r="37" spans="18:54" x14ac:dyDescent="0.25">
       <c r="R37" t="s">
         <v>6078</v>
       </c>
@@ -40092,7 +40110,7 @@
         <v>6084</v>
       </c>
     </row>
-    <row r="38" spans="18:54">
+    <row r="38" spans="18:54" x14ac:dyDescent="0.25">
       <c r="R38" t="s">
         <v>6085</v>
       </c>
@@ -40115,7 +40133,7 @@
         <v>6091</v>
       </c>
     </row>
-    <row r="39" spans="18:54">
+    <row r="39" spans="18:54" x14ac:dyDescent="0.25">
       <c r="R39" t="s">
         <v>6092</v>
       </c>
@@ -40138,7 +40156,7 @@
         <v>6098</v>
       </c>
     </row>
-    <row r="40" spans="18:54">
+    <row r="40" spans="18:54" x14ac:dyDescent="0.25">
       <c r="R40" t="s">
         <v>6099</v>
       </c>
@@ -40161,7 +40179,7 @@
         <v>6104</v>
       </c>
     </row>
-    <row r="41" spans="18:54">
+    <row r="41" spans="18:54" x14ac:dyDescent="0.25">
       <c r="R41" t="s">
         <v>6105</v>
       </c>
@@ -40178,7 +40196,7 @@
         <v>6109</v>
       </c>
     </row>
-    <row r="42" spans="18:54">
+    <row r="42" spans="18:54" x14ac:dyDescent="0.25">
       <c r="R42" t="s">
         <v>6110</v>
       </c>
@@ -40195,7 +40213,7 @@
         <v>6114</v>
       </c>
     </row>
-    <row r="43" spans="18:54">
+    <row r="43" spans="18:54" x14ac:dyDescent="0.25">
       <c r="R43" t="s">
         <v>5824</v>
       </c>
@@ -40209,7 +40227,7 @@
         <v>6117</v>
       </c>
     </row>
-    <row r="44" spans="18:54">
+    <row r="44" spans="18:54" x14ac:dyDescent="0.25">
       <c r="R44" t="s">
         <v>6118</v>
       </c>
@@ -40223,7 +40241,7 @@
         <v>6121</v>
       </c>
     </row>
-    <row r="45" spans="18:54">
+    <row r="45" spans="18:54" x14ac:dyDescent="0.25">
       <c r="R45" t="s">
         <v>6122</v>
       </c>
@@ -40237,7 +40255,7 @@
         <v>5819</v>
       </c>
     </row>
-    <row r="46" spans="18:54">
+    <row r="46" spans="18:54" x14ac:dyDescent="0.25">
       <c r="R46" t="s">
         <v>6125</v>
       </c>
@@ -40251,7 +40269,7 @@
         <v>5819</v>
       </c>
     </row>
-    <row r="47" spans="18:54">
+    <row r="47" spans="18:54" x14ac:dyDescent="0.25">
       <c r="R47" t="s">
         <v>6128</v>
       </c>
@@ -40265,7 +40283,7 @@
         <v>6131</v>
       </c>
     </row>
-    <row r="48" spans="18:54">
+    <row r="48" spans="18:54" x14ac:dyDescent="0.25">
       <c r="R48" t="s">
         <v>6132</v>
       </c>
@@ -40279,7 +40297,7 @@
         <v>6135</v>
       </c>
     </row>
-    <row r="49" spans="18:28">
+    <row r="49" spans="18:28" x14ac:dyDescent="0.25">
       <c r="R49" t="s">
         <v>6136</v>
       </c>
@@ -40293,7 +40311,7 @@
         <v>6139</v>
       </c>
     </row>
-    <row r="50" spans="18:28">
+    <row r="50" spans="18:28" x14ac:dyDescent="0.25">
       <c r="R50" t="s">
         <v>6140</v>
       </c>
@@ -40307,7 +40325,7 @@
         <v>6143</v>
       </c>
     </row>
-    <row r="51" spans="18:28">
+    <row r="51" spans="18:28" x14ac:dyDescent="0.25">
       <c r="R51" t="s">
         <v>6144</v>
       </c>
@@ -40321,7 +40339,7 @@
         <v>5470</v>
       </c>
     </row>
-    <row r="52" spans="18:28">
+    <row r="52" spans="18:28" x14ac:dyDescent="0.25">
       <c r="R52" t="s">
         <v>6147</v>
       </c>
@@ -40335,7 +40353,7 @@
         <v>5470</v>
       </c>
     </row>
-    <row r="53" spans="18:28">
+    <row r="53" spans="18:28" x14ac:dyDescent="0.25">
       <c r="R53" t="s">
         <v>6150</v>
       </c>
@@ -40349,7 +40367,7 @@
         <v>6153</v>
       </c>
     </row>
-    <row r="54" spans="18:28">
+    <row r="54" spans="18:28" x14ac:dyDescent="0.25">
       <c r="R54" t="s">
         <v>6154</v>
       </c>
@@ -40363,7 +40381,7 @@
         <v>6157</v>
       </c>
     </row>
-    <row r="55" spans="18:28">
+    <row r="55" spans="18:28" x14ac:dyDescent="0.25">
       <c r="R55" t="s">
         <v>6158</v>
       </c>
@@ -40377,7 +40395,7 @@
         <v>6161</v>
       </c>
     </row>
-    <row r="56" spans="18:28">
+    <row r="56" spans="18:28" x14ac:dyDescent="0.25">
       <c r="R56" t="s">
         <v>6162</v>
       </c>
@@ -40391,7 +40409,7 @@
         <v>5518</v>
       </c>
     </row>
-    <row r="57" spans="18:28">
+    <row r="57" spans="18:28" x14ac:dyDescent="0.25">
       <c r="R57" t="s">
         <v>6165</v>
       </c>
@@ -40405,7 +40423,7 @@
         <v>6016</v>
       </c>
     </row>
-    <row r="58" spans="18:28">
+    <row r="58" spans="18:28" x14ac:dyDescent="0.25">
       <c r="R58" t="s">
         <v>6168</v>
       </c>
@@ -40416,7 +40434,7 @@
         <v>6046</v>
       </c>
     </row>
-    <row r="59" spans="18:28">
+    <row r="59" spans="18:28" x14ac:dyDescent="0.25">
       <c r="R59" t="s">
         <v>6170</v>
       </c>
@@ -40427,7 +40445,7 @@
         <v>6172</v>
       </c>
     </row>
-    <row r="60" spans="18:28">
+    <row r="60" spans="18:28" x14ac:dyDescent="0.25">
       <c r="AA60" t="s">
         <v>6173</v>
       </c>
@@ -40435,7 +40453,7 @@
         <v>6174</v>
       </c>
     </row>
-    <row r="61" spans="18:28">
+    <row r="61" spans="18:28" x14ac:dyDescent="0.25">
       <c r="AA61" t="s">
         <v>6175</v>
       </c>
@@ -40443,7 +40461,7 @@
         <v>6176</v>
       </c>
     </row>
-    <row r="62" spans="18:28">
+    <row r="62" spans="18:28" x14ac:dyDescent="0.25">
       <c r="AA62" t="s">
         <v>6177</v>
       </c>
@@ -40451,7 +40469,7 @@
         <v>6178</v>
       </c>
     </row>
-    <row r="63" spans="18:28">
+    <row r="63" spans="18:28" x14ac:dyDescent="0.25">
       <c r="AA63" t="s">
         <v>6179</v>
       </c>
@@ -40459,7 +40477,7 @@
         <v>6180</v>
       </c>
     </row>
-    <row r="64" spans="18:28">
+    <row r="64" spans="18:28" x14ac:dyDescent="0.25">
       <c r="AA64" t="s">
         <v>6181</v>
       </c>
@@ -40467,7 +40485,7 @@
         <v>6182</v>
       </c>
     </row>
-    <row r="65" spans="27:28">
+    <row r="65" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA65" t="s">
         <v>6183</v>
       </c>
@@ -40475,7 +40493,7 @@
         <v>6184</v>
       </c>
     </row>
-    <row r="66" spans="27:28">
+    <row r="66" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA66" t="s">
         <v>6185</v>
       </c>
@@ -40483,7 +40501,7 @@
         <v>6186</v>
       </c>
     </row>
-    <row r="67" spans="27:28">
+    <row r="67" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA67" t="s">
         <v>6187</v>
       </c>
@@ -40491,7 +40509,7 @@
         <v>6188</v>
       </c>
     </row>
-    <row r="68" spans="27:28">
+    <row r="68" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA68" t="s">
         <v>6189</v>
       </c>
@@ -40499,7 +40517,7 @@
         <v>6190</v>
       </c>
     </row>
-    <row r="69" spans="27:28">
+    <row r="69" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA69" t="s">
         <v>6191</v>
       </c>
@@ -40507,7 +40525,7 @@
         <v>6192</v>
       </c>
     </row>
-    <row r="70" spans="27:28">
+    <row r="70" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA70" t="s">
         <v>6193</v>
       </c>
@@ -40515,7 +40533,7 @@
         <v>6194</v>
       </c>
     </row>
-    <row r="71" spans="27:28">
+    <row r="71" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA71" t="s">
         <v>6195</v>
       </c>
@@ -40523,7 +40541,7 @@
         <v>6196</v>
       </c>
     </row>
-    <row r="72" spans="27:28">
+    <row r="72" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA72" t="s">
         <v>6197</v>
       </c>
@@ -40531,7 +40549,7 @@
         <v>6198</v>
       </c>
     </row>
-    <row r="73" spans="27:28">
+    <row r="73" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA73" t="s">
         <v>6199</v>
       </c>
@@ -40539,7 +40557,7 @@
         <v>6200</v>
       </c>
     </row>
-    <row r="74" spans="27:28">
+    <row r="74" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA74" t="s">
         <v>6201</v>
       </c>
@@ -40547,7 +40565,7 @@
         <v>6202</v>
       </c>
     </row>
-    <row r="75" spans="27:28">
+    <row r="75" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA75" t="s">
         <v>6203</v>
       </c>
@@ -40555,7 +40573,7 @@
         <v>6204</v>
       </c>
     </row>
-    <row r="76" spans="27:28">
+    <row r="76" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA76" t="s">
         <v>6205</v>
       </c>
@@ -40563,7 +40581,7 @@
         <v>6206</v>
       </c>
     </row>
-    <row r="77" spans="27:28">
+    <row r="77" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA77" t="s">
         <v>6207</v>
       </c>
@@ -40571,7 +40589,7 @@
         <v>6208</v>
       </c>
     </row>
-    <row r="78" spans="27:28">
+    <row r="78" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA78" t="s">
         <v>6209</v>
       </c>
@@ -40579,7 +40597,7 @@
         <v>6210</v>
       </c>
     </row>
-    <row r="79" spans="27:28">
+    <row r="79" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA79" t="s">
         <v>6211</v>
       </c>
@@ -40587,7 +40605,7 @@
         <v>6212</v>
       </c>
     </row>
-    <row r="80" spans="27:28">
+    <row r="80" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA80" t="s">
         <v>6213</v>
       </c>
@@ -40595,7 +40613,7 @@
         <v>6214</v>
       </c>
     </row>
-    <row r="81" spans="27:28">
+    <row r="81" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA81" t="s">
         <v>6215</v>
       </c>
@@ -40603,7 +40621,7 @@
         <v>6216</v>
       </c>
     </row>
-    <row r="82" spans="27:28">
+    <row r="82" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA82" t="s">
         <v>6217</v>
       </c>
@@ -40611,7 +40629,7 @@
         <v>6218</v>
       </c>
     </row>
-    <row r="83" spans="27:28">
+    <row r="83" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA83" t="s">
         <v>6219</v>
       </c>
@@ -40619,7 +40637,7 @@
         <v>6220</v>
       </c>
     </row>
-    <row r="84" spans="27:28">
+    <row r="84" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA84" t="s">
         <v>6221</v>
       </c>
@@ -40627,7 +40645,7 @@
         <v>6222</v>
       </c>
     </row>
-    <row r="85" spans="27:28">
+    <row r="85" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA85" t="s">
         <v>6223</v>
       </c>
@@ -40635,7 +40653,7 @@
         <v>6224</v>
       </c>
     </row>
-    <row r="86" spans="27:28">
+    <row r="86" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA86" t="s">
         <v>6225</v>
       </c>
@@ -40643,7 +40661,7 @@
         <v>6226</v>
       </c>
     </row>
-    <row r="87" spans="27:28">
+    <row r="87" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA87" t="s">
         <v>6227</v>
       </c>
@@ -40651,7 +40669,7 @@
         <v>6228</v>
       </c>
     </row>
-    <row r="88" spans="27:28">
+    <row r="88" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA88" t="s">
         <v>6229</v>
       </c>
@@ -40659,7 +40677,7 @@
         <v>6230</v>
       </c>
     </row>
-    <row r="89" spans="27:28">
+    <row r="89" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA89" t="s">
         <v>6231</v>
       </c>
@@ -40667,7 +40685,7 @@
         <v>6232</v>
       </c>
     </row>
-    <row r="90" spans="27:28">
+    <row r="90" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA90" t="s">
         <v>6233</v>
       </c>
@@ -40675,7 +40693,7 @@
         <v>6234</v>
       </c>
     </row>
-    <row r="91" spans="27:28">
+    <row r="91" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA91" t="s">
         <v>6235</v>
       </c>
@@ -40683,7 +40701,7 @@
         <v>6236</v>
       </c>
     </row>
-    <row r="92" spans="27:28">
+    <row r="92" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA92" t="s">
         <v>6237</v>
       </c>
@@ -40691,7 +40709,7 @@
         <v>6238</v>
       </c>
     </row>
-    <row r="93" spans="27:28">
+    <row r="93" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA93" t="s">
         <v>6239</v>
       </c>
@@ -40699,7 +40717,7 @@
         <v>6240</v>
       </c>
     </row>
-    <row r="94" spans="27:28">
+    <row r="94" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA94" t="s">
         <v>6241</v>
       </c>
@@ -40707,7 +40725,7 @@
         <v>6242</v>
       </c>
     </row>
-    <row r="95" spans="27:28">
+    <row r="95" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA95" t="s">
         <v>6243</v>
       </c>
@@ -40715,7 +40733,7 @@
         <v>6244</v>
       </c>
     </row>
-    <row r="96" spans="27:28">
+    <row r="96" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA96" t="s">
         <v>6245</v>
       </c>
@@ -40723,7 +40741,7 @@
         <v>6246</v>
       </c>
     </row>
-    <row r="97" spans="27:28">
+    <row r="97" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA97" t="s">
         <v>6247</v>
       </c>
@@ -40731,7 +40749,7 @@
         <v>6248</v>
       </c>
     </row>
-    <row r="98" spans="27:28">
+    <row r="98" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA98" t="s">
         <v>6249</v>
       </c>
@@ -40739,7 +40757,7 @@
         <v>6250</v>
       </c>
     </row>
-    <row r="99" spans="27:28">
+    <row r="99" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA99" t="s">
         <v>6251</v>
       </c>
@@ -40747,7 +40765,7 @@
         <v>6252</v>
       </c>
     </row>
-    <row r="100" spans="27:28">
+    <row r="100" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA100" t="s">
         <v>6253</v>
       </c>
@@ -40755,7 +40773,7 @@
         <v>6254</v>
       </c>
     </row>
-    <row r="101" spans="27:28">
+    <row r="101" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA101" t="s">
         <v>6255</v>
       </c>
@@ -40763,7 +40781,7 @@
         <v>6256</v>
       </c>
     </row>
-    <row r="102" spans="27:28">
+    <row r="102" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA102" t="s">
         <v>6257</v>
       </c>
@@ -40771,7 +40789,7 @@
         <v>6258</v>
       </c>
     </row>
-    <row r="103" spans="27:28">
+    <row r="103" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA103" t="s">
         <v>6259</v>
       </c>
@@ -40779,7 +40797,7 @@
         <v>6260</v>
       </c>
     </row>
-    <row r="104" spans="27:28">
+    <row r="104" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA104" t="s">
         <v>6261</v>
       </c>
@@ -40787,7 +40805,7 @@
         <v>6262</v>
       </c>
     </row>
-    <row r="105" spans="27:28">
+    <row r="105" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA105" t="s">
         <v>6263</v>
       </c>
@@ -40795,7 +40813,7 @@
         <v>6264</v>
       </c>
     </row>
-    <row r="106" spans="27:28">
+    <row r="106" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA106" t="s">
         <v>6265</v>
       </c>
@@ -40803,7 +40821,7 @@
         <v>6266</v>
       </c>
     </row>
-    <row r="107" spans="27:28">
+    <row r="107" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA107" t="s">
         <v>5479</v>
       </c>
@@ -40811,7 +40829,7 @@
         <v>6267</v>
       </c>
     </row>
-    <row r="108" spans="27:28">
+    <row r="108" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA108" t="s">
         <v>5528</v>
       </c>
@@ -40819,7 +40837,7 @@
         <v>6268</v>
       </c>
     </row>
-    <row r="109" spans="27:28">
+    <row r="109" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA109" t="s">
         <v>5574</v>
       </c>
@@ -40827,7 +40845,7 @@
         <v>6269</v>
       </c>
     </row>
-    <row r="110" spans="27:28">
+    <row r="110" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA110" t="s">
         <v>5615</v>
       </c>
@@ -40835,7 +40853,7 @@
         <v>6270</v>
       </c>
     </row>
-    <row r="111" spans="27:28">
+    <row r="111" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA111" t="s">
         <v>5656</v>
       </c>
@@ -40843,7 +40861,7 @@
         <v>6271</v>
       </c>
     </row>
-    <row r="112" spans="27:28">
+    <row r="112" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA112" t="s">
         <v>6272</v>
       </c>
@@ -40851,7 +40869,7 @@
         <v>6273</v>
       </c>
     </row>
-    <row r="113" spans="27:28">
+    <row r="113" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA113" t="s">
         <v>6274</v>
       </c>
@@ -40859,7 +40877,7 @@
         <v>6275</v>
       </c>
     </row>
-    <row r="114" spans="27:28">
+    <row r="114" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA114" t="s">
         <v>6276</v>
       </c>
@@ -40867,7 +40885,7 @@
         <v>6277</v>
       </c>
     </row>
-    <row r="115" spans="27:28">
+    <row r="115" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA115" t="s">
         <v>6278</v>
       </c>
@@ -40875,7 +40893,7 @@
         <v>6279</v>
       </c>
     </row>
-    <row r="116" spans="27:28">
+    <row r="116" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA116" t="s">
         <v>6280</v>
       </c>
@@ -40883,7 +40901,7 @@
         <v>6281</v>
       </c>
     </row>
-    <row r="117" spans="27:28">
+    <row r="117" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA117" t="s">
         <v>4868</v>
       </c>
@@ -40891,7 +40909,7 @@
         <v>6282</v>
       </c>
     </row>
-    <row r="118" spans="27:28">
+    <row r="118" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA118" t="s">
         <v>4877</v>
       </c>
@@ -40899,7 +40917,7 @@
         <v>6283</v>
       </c>
     </row>
-    <row r="119" spans="27:28">
+    <row r="119" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA119" t="s">
         <v>4999</v>
       </c>
@@ -40907,7 +40925,7 @@
         <v>6284</v>
       </c>
     </row>
-    <row r="120" spans="27:28">
+    <row r="120" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA120" t="s">
         <v>6285</v>
       </c>
@@ -40915,267 +40933,267 @@
         <v>6286</v>
       </c>
     </row>
-    <row r="121" spans="27:28">
+    <row r="121" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA121" t="s">
         <v>6287</v>
       </c>
     </row>
-    <row r="122" spans="27:28">
+    <row r="122" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA122" t="s">
         <v>6288</v>
       </c>
     </row>
-    <row r="123" spans="27:28">
+    <row r="123" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA123" t="s">
         <v>6289</v>
       </c>
     </row>
-    <row r="124" spans="27:28">
+    <row r="124" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA124" t="s">
         <v>6290</v>
       </c>
     </row>
-    <row r="125" spans="27:28">
+    <row r="125" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA125" t="s">
         <v>6291</v>
       </c>
     </row>
-    <row r="126" spans="27:28">
+    <row r="126" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA126" t="s">
         <v>6292</v>
       </c>
     </row>
-    <row r="127" spans="27:28">
+    <row r="127" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA127" t="s">
         <v>6293</v>
       </c>
     </row>
-    <row r="128" spans="27:28">
+    <row r="128" spans="27:28" x14ac:dyDescent="0.25">
       <c r="AA128" t="s">
         <v>6294</v>
       </c>
     </row>
-    <row r="129" spans="27:27">
+    <row r="129" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA129" t="s">
         <v>6295</v>
       </c>
     </row>
-    <row r="130" spans="27:27">
+    <row r="130" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA130" t="s">
         <v>6296</v>
       </c>
     </row>
-    <row r="131" spans="27:27">
+    <row r="131" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA131" t="s">
         <v>6297</v>
       </c>
     </row>
-    <row r="132" spans="27:27">
+    <row r="132" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA132" t="s">
         <v>6298</v>
       </c>
     </row>
-    <row r="133" spans="27:27">
+    <row r="133" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA133" t="s">
         <v>6299</v>
       </c>
     </row>
-    <row r="134" spans="27:27">
+    <row r="134" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA134" t="s">
         <v>6300</v>
       </c>
     </row>
-    <row r="135" spans="27:27">
+    <row r="135" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA135" t="s">
         <v>6301</v>
       </c>
     </row>
-    <row r="136" spans="27:27">
+    <row r="136" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA136" t="s">
         <v>6302</v>
       </c>
     </row>
-    <row r="137" spans="27:27">
+    <row r="137" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA137" t="s">
         <v>6303</v>
       </c>
     </row>
-    <row r="138" spans="27:27">
+    <row r="138" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA138" t="s">
         <v>6304</v>
       </c>
     </row>
-    <row r="139" spans="27:27">
+    <row r="139" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA139" t="s">
         <v>6305</v>
       </c>
     </row>
-    <row r="140" spans="27:27">
+    <row r="140" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA140" t="s">
         <v>6306</v>
       </c>
     </row>
-    <row r="141" spans="27:27">
+    <row r="141" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA141" t="s">
         <v>6307</v>
       </c>
     </row>
-    <row r="142" spans="27:27">
+    <row r="142" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA142" t="s">
         <v>6308</v>
       </c>
     </row>
-    <row r="143" spans="27:27">
+    <row r="143" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA143" t="s">
         <v>6309</v>
       </c>
     </row>
-    <row r="144" spans="27:27">
+    <row r="144" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA144" t="s">
         <v>6309</v>
       </c>
     </row>
-    <row r="145" spans="27:27">
+    <row r="145" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA145" t="s">
         <v>6310</v>
       </c>
     </row>
-    <row r="146" spans="27:27">
+    <row r="146" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA146" t="s">
         <v>6311</v>
       </c>
     </row>
-    <row r="147" spans="27:27">
+    <row r="147" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA147" t="s">
         <v>6312</v>
       </c>
     </row>
-    <row r="148" spans="27:27">
+    <row r="148" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA148" t="s">
         <v>6313</v>
       </c>
     </row>
-    <row r="149" spans="27:27">
+    <row r="149" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA149" t="s">
         <v>6314</v>
       </c>
     </row>
-    <row r="150" spans="27:27">
+    <row r="150" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA150" t="s">
         <v>6315</v>
       </c>
     </row>
-    <row r="151" spans="27:27">
+    <row r="151" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA151" t="s">
         <v>6316</v>
       </c>
     </row>
-    <row r="152" spans="27:27">
+    <row r="152" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA152" t="s">
         <v>6317</v>
       </c>
     </row>
-    <row r="153" spans="27:27">
+    <row r="153" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA153" t="s">
         <v>6318</v>
       </c>
     </row>
-    <row r="154" spans="27:27">
+    <row r="154" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA154" t="s">
         <v>6319</v>
       </c>
     </row>
-    <row r="155" spans="27:27">
+    <row r="155" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA155" t="s">
         <v>6320</v>
       </c>
     </row>
-    <row r="156" spans="27:27">
+    <row r="156" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA156" t="s">
         <v>6321</v>
       </c>
     </row>
-    <row r="157" spans="27:27">
+    <row r="157" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA157" t="s">
         <v>6321</v>
       </c>
     </row>
-    <row r="158" spans="27:27">
+    <row r="158" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA158" t="s">
         <v>6322</v>
       </c>
     </row>
-    <row r="159" spans="27:27">
+    <row r="159" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA159" t="s">
         <v>6323</v>
       </c>
     </row>
-    <row r="160" spans="27:27">
+    <row r="160" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA160" t="s">
         <v>6324</v>
       </c>
     </row>
-    <row r="161" spans="27:27">
+    <row r="161" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA161" t="s">
         <v>6325</v>
       </c>
     </row>
-    <row r="162" spans="27:27">
+    <row r="162" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA162" t="s">
         <v>6326</v>
       </c>
     </row>
-    <row r="163" spans="27:27">
+    <row r="163" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA163" t="s">
         <v>6327</v>
       </c>
     </row>
-    <row r="164" spans="27:27">
+    <row r="164" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA164" t="s">
         <v>6328</v>
       </c>
     </row>
-    <row r="165" spans="27:27">
+    <row r="165" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA165" t="s">
         <v>6329</v>
       </c>
     </row>
-    <row r="166" spans="27:27">
+    <row r="166" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA166" t="s">
         <v>6330</v>
       </c>
     </row>
-    <row r="167" spans="27:27">
+    <row r="167" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA167" t="s">
         <v>6331</v>
       </c>
     </row>
-    <row r="168" spans="27:27">
+    <row r="168" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA168" t="s">
         <v>6332</v>
       </c>
     </row>
-    <row r="169" spans="27:27">
+    <row r="169" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA169" t="s">
         <v>6333</v>
       </c>
     </row>
-    <row r="170" spans="27:27">
+    <row r="170" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA170" t="s">
         <v>6334</v>
       </c>
     </row>
-    <row r="171" spans="27:27">
+    <row r="171" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA171" t="s">
         <v>6335</v>
       </c>
     </row>
-    <row r="172" spans="27:27">
+    <row r="172" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA172" t="s">
         <v>6336</v>
       </c>
     </row>
-    <row r="173" spans="27:27">
+    <row r="173" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA173" t="s">
         <v>6337</v>
       </c>

--- a/MCUMPU_database_23_05_newest.xlsx
+++ b/MCUMPU_database_23_05_newest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://renesasgroup-my.sharepoint.com/personal/rohith_srinivasan_wr_renesas_com/Documents/Desktop/New_Workspace_25/11_03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_11E21920B843918DAEE94763051ACF32DB84E3F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F571FB1D-555C-4941-9815-718D4EB0DBB6}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="11_11E21920B843918DAEE94763051ACF32DB84E3F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF4A753B-5069-4FC7-9B42-9E6198D38DEF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19430,8 +19430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BO211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AK9" sqref="AK9"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="BB2" sqref="BB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19444,8 +19444,20 @@
     <col min="33" max="33" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="38" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="40" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -19775,7 +19787,7 @@
       <c r="AO2" t="s">
         <v>106</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>107</v>
       </c>
       <c r="AQ2" t="s">
@@ -19787,7 +19799,7 @@
       <c r="AS2" t="s">
         <v>110</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>111</v>
       </c>
       <c r="AU2" t="s">
@@ -19987,7 +19999,7 @@
       <c r="AS3" t="s">
         <v>175</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AT3" s="2" t="s">
         <v>176</v>
       </c>
       <c r="AU3" t="s">
@@ -20169,7 +20181,7 @@
       <c r="AR4" t="s">
         <v>235</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AT4" s="2" t="s">
         <v>236</v>
       </c>
       <c r="AV4" t="s">
@@ -20348,7 +20360,7 @@
       <c r="AR5" t="s">
         <v>292</v>
       </c>
-      <c r="AT5" t="s">
+      <c r="AT5" s="2" t="s">
         <v>293</v>
       </c>
       <c r="AV5" t="s">
@@ -20494,7 +20506,7 @@
       <c r="AR6" t="s">
         <v>340</v>
       </c>
-      <c r="AT6" t="s">
+      <c r="AT6" s="2" t="s">
         <v>341</v>
       </c>
       <c r="AV6" t="s">
@@ -20619,7 +20631,7 @@
       <c r="AR7" t="s">
         <v>379</v>
       </c>
-      <c r="AT7" t="s">
+      <c r="AT7" s="2" t="s">
         <v>380</v>
       </c>
       <c r="AV7" t="s">
@@ -20735,7 +20747,7 @@
       <c r="AR8" t="s">
         <v>416</v>
       </c>
-      <c r="AT8" t="s">
+      <c r="AT8" s="2" t="s">
         <v>182</v>
       </c>
       <c r="AV8" t="s">
@@ -20848,7 +20860,7 @@
       <c r="AR9" t="s">
         <v>451</v>
       </c>
-      <c r="AT9" t="s">
+      <c r="AT9" s="2" t="s">
         <v>452</v>
       </c>
       <c r="AV9" t="s">
@@ -20952,7 +20964,7 @@
       <c r="AR10" t="s">
         <v>485</v>
       </c>
-      <c r="AT10" t="s">
+      <c r="AT10" s="2" t="s">
         <v>486</v>
       </c>
       <c r="AV10" t="s">
@@ -21050,7 +21062,7 @@
       <c r="AR11" t="s">
         <v>517</v>
       </c>
-      <c r="AT11" t="s">
+      <c r="AT11" s="2" t="s">
         <v>518</v>
       </c>
       <c r="AV11" t="s">
@@ -21145,7 +21157,7 @@
       <c r="AR12" t="s">
         <v>548</v>
       </c>
-      <c r="AT12" t="s">
+      <c r="AT12" s="2" t="s">
         <v>549</v>
       </c>
       <c r="AV12" t="s">
@@ -21237,7 +21249,7 @@
       <c r="AR13" t="s">
         <v>578</v>
       </c>
-      <c r="AT13" t="s">
+      <c r="AT13" s="2" t="s">
         <v>579</v>
       </c>
       <c r="AV13" t="s">
@@ -21314,7 +21326,7 @@
       <c r="AR14" t="s">
         <v>603</v>
       </c>
-      <c r="AT14" t="s">
+      <c r="AT14" s="2" t="s">
         <v>604</v>
       </c>
       <c r="AV14" t="s">
@@ -21385,7 +21397,7 @@
       <c r="AR15" t="s">
         <v>626</v>
       </c>
-      <c r="AT15" t="s">
+      <c r="AT15" s="2" t="s">
         <v>627</v>
       </c>
       <c r="AV15" t="s">
@@ -21456,7 +21468,7 @@
       <c r="AR16" t="s">
         <v>648</v>
       </c>
-      <c r="AT16" t="s">
+      <c r="AT16" s="2" t="s">
         <v>649</v>
       </c>
       <c r="AV16" t="s">
@@ -21524,7 +21536,7 @@
       <c r="AR17" t="s">
         <v>669</v>
       </c>
-      <c r="AT17" t="s">
+      <c r="AT17" s="2" t="s">
         <v>670</v>
       </c>
       <c r="AV17" t="s">
@@ -21592,7 +21604,7 @@
       <c r="AR18" t="s">
         <v>690</v>
       </c>
-      <c r="AT18" t="s">
+      <c r="AT18" s="2" t="s">
         <v>691</v>
       </c>
       <c r="AZ18" t="s">
@@ -21654,7 +21666,7 @@
       <c r="AR19" t="s">
         <v>709</v>
       </c>
-      <c r="AT19" t="s">
+      <c r="AT19" s="2" t="s">
         <v>710</v>
       </c>
       <c r="AZ19" t="s">
@@ -21713,7 +21725,7 @@
       <c r="AR20" t="s">
         <v>727</v>
       </c>
-      <c r="AT20" t="s">
+      <c r="AT20" s="2" t="s">
         <v>728</v>
       </c>
       <c r="AZ20" t="s">
@@ -21772,7 +21784,7 @@
       <c r="AR21" t="s">
         <v>745</v>
       </c>
-      <c r="AT21" t="s">
+      <c r="AT21" s="2" t="s">
         <v>746</v>
       </c>
       <c r="BD21" t="s">
@@ -21822,7 +21834,7 @@
       <c r="AR22" t="s">
         <v>759</v>
       </c>
-      <c r="AT22" t="s">
+      <c r="AT22" s="2" t="s">
         <v>760</v>
       </c>
       <c r="BD22" t="s">
